--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6740A9D-6AB9-4C1C-9ACD-72C966B970F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F475DA2-C54C-4B9D-904A-CAE5B0360CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
     <sheet name="jag_b500c" sheetId="3" r:id="rId2"/>
     <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId3"/>
+    <sheet name="jag_b500a" sheetId="4" r:id="rId4"/>
+    <sheet name="V10_drillweich" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -437,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,7 +461,7 @@
         <v>-0.47</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,7 +472,7 @@
         <v>-0.93899999999999995</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,7 +483,7 @@
         <v>-1.49</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,7 +494,7 @@
         <v>-2.2530000000000001</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,7 +505,7 @@
         <v>-4.1520000000000001</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,7 +516,7 @@
         <v>-6.8440000000000003</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +527,7 @@
         <v>-9.5399999999999991</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,7 +538,7 @@
         <v>-12.609</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +549,7 @@
         <v>-16.097999999999999</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,7 +560,7 @@
         <v>-20.971</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +571,7 @@
         <v>-28.122</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,7 +582,7 @@
         <v>-37.472000000000001</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +593,7 @@
         <v>-48.073</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +604,7 @@
         <v>-59.463999999999999</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +615,7 @@
         <v>-71.733999999999995</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,7 +626,7 @@
         <v>-84.503</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,7 +637,7 @@
         <v>-97.724999999999994</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +648,7 @@
         <v>-111.105</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,7 +659,7 @@
         <v>-124.64100000000001</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,7 +670,7 @@
         <v>-138.37</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D900DCE-0A2E-463F-93CB-27F02159151E}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
@@ -1188,4 +1190,408 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D868CF-29DB-4618-9EE8-B3D60C905B81}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-16.771000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-19.565999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.46666999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-22.361999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.53332999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-25.157</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-27.952000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-30.747</v>
+      </c>
+      <c r="C8">
+        <v>0.73333000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-33.542000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-36.496000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.86667000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-42.173999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.93332999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-47.853000000000002</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163D0521-112D-4C91-828F-188B0ECA5FA9}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-2.7120000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-3.43</v>
+      </c>
+      <c r="C4">
+        <v>0.43158000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-4.476</v>
+      </c>
+      <c r="C5">
+        <v>0.46316000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-5.6150000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.49474000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-6.702</v>
+      </c>
+      <c r="C7">
+        <v>0.52632000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-7.7190000000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.55789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-8.7129999999999992</v>
+      </c>
+      <c r="C9">
+        <v>0.58947000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-9.8469999999999995</v>
+      </c>
+      <c r="C10">
+        <v>0.62104999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-11.044</v>
+      </c>
+      <c r="C11">
+        <v>0.65263000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-12.337</v>
+      </c>
+      <c r="C12">
+        <v>0.68420999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-13.653</v>
+      </c>
+      <c r="C13">
+        <v>0.71579000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-15.119</v>
+      </c>
+      <c r="C14">
+        <v>0.74736999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-17.192</v>
+      </c>
+      <c r="C15">
+        <v>0.77895000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-19.87</v>
+      </c>
+      <c r="C16">
+        <v>0.81052999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-23.762</v>
+      </c>
+      <c r="C17">
+        <v>0.84211000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-29.876000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.87368000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-41.353000000000002</v>
+      </c>
+      <c r="C19">
+        <v>0.90525999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-61.466000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.93684000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-99.474999999999994</v>
+      </c>
+      <c r="C21">
+        <v>0.96841999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-184.262</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F475DA2-C54C-4B9D-904A-CAE5B0360CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66546E60-BB95-47D1-A578-E570194403BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId3"/>
     <sheet name="jag_b500a" sheetId="4" r:id="rId4"/>
     <sheet name="V10_drillweich" sheetId="5" r:id="rId5"/>
+    <sheet name="V10_axis" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -425,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF59AC3-EDBC-4E60-87D2-EEFBB85DEEF1}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
@@ -458,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.47</v>
+        <v>-0.47599999999999998</v>
       </c>
       <c r="C3">
         <v>0.05</v>
@@ -469,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.93899999999999995</v>
+        <v>-0.95199999999999996</v>
       </c>
       <c r="C4">
         <v>0.1</v>
@@ -480,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.49</v>
+        <v>-1.5149999999999999</v>
       </c>
       <c r="C5">
         <v>0.15</v>
@@ -491,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.2530000000000001</v>
+        <v>-2.3239999999999998</v>
       </c>
       <c r="C6">
         <v>0.2</v>
@@ -502,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-4.1520000000000001</v>
+        <v>-4.4619999999999997</v>
       </c>
       <c r="C7">
         <v>0.25</v>
@@ -513,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-6.8440000000000003</v>
+        <v>-7.3550000000000004</v>
       </c>
       <c r="C8">
         <v>0.3</v>
@@ -524,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-9.5399999999999991</v>
+        <v>-10.29</v>
       </c>
       <c r="C9">
         <v>0.35</v>
@@ -535,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-12.609</v>
+        <v>-13.693</v>
       </c>
       <c r="C10">
         <v>0.4</v>
@@ -546,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-16.097999999999999</v>
+        <v>-18.140999999999998</v>
       </c>
       <c r="C11">
         <v>0.45</v>
@@ -557,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-20.971</v>
+        <v>-25.215</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -568,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-28.122</v>
+        <v>-36.868000000000002</v>
       </c>
       <c r="C13">
         <v>0.55000000000000004</v>
@@ -579,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-37.472000000000001</v>
+        <v>-51.704000000000001</v>
       </c>
       <c r="C14">
         <v>0.6</v>
@@ -590,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-48.073</v>
+        <v>-68.427999999999997</v>
       </c>
       <c r="C15">
         <v>0.65</v>
@@ -601,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-59.463999999999999</v>
+        <v>-86.870999999999995</v>
       </c>
       <c r="C16">
         <v>0.7</v>
@@ -612,7 +613,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-71.733999999999995</v>
+        <v>-106.23099999999999</v>
       </c>
       <c r="C17">
         <v>0.75</v>
@@ -623,7 +624,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-84.503</v>
+        <v>-126.236</v>
       </c>
       <c r="C18">
         <v>0.8</v>
@@ -634,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-97.724999999999994</v>
+        <v>-146.72</v>
       </c>
       <c r="C19">
         <v>0.85</v>
@@ -645,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-111.105</v>
+        <v>-167.6</v>
       </c>
       <c r="C20">
         <v>0.9</v>
@@ -656,7 +657,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-124.64100000000001</v>
+        <v>-188.839</v>
       </c>
       <c r="C21">
         <v>0.95</v>
@@ -667,7 +668,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-138.37</v>
+        <v>-210.25299999999999</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1343,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163D0521-112D-4C91-828F-188B0ECA5FA9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
@@ -1594,4 +1595,162 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE4E82F-2F13-4B3F-B913-0381D7A93385}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-0.61299999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.85499999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-1.1439999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-1.54</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-2.052</v>
+      </c>
+      <c r="C9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-2.6659999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-3.33</v>
+      </c>
+      <c r="C11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-3.992</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-4.8849999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66546E60-BB95-47D1-A578-E570194403BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A559C-CD77-405F-BB96-45007B50ED10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF59AC3-EDBC-4E60-87D2-EEFBB85DEEF1}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +459,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.47599999999999998</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>1.2345999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.95199999999999996</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>2.4691000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.5149999999999999</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>3.7037E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.3239999999999998</v>
+        <v>-0.47</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>4.9383000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-4.4619999999999997</v>
+        <v>-0.58699999999999997</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>6.1727999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +514,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-7.3550000000000004</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>7.4074000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-10.29</v>
+        <v>-0.82199999999999995</v>
       </c>
       <c r="C9">
-        <v>0.35</v>
+        <v>8.6419999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-13.693</v>
+        <v>-0.93899999999999995</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>9.8765000000000006E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +547,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-18.140999999999998</v>
+        <v>-1.0609999999999999</v>
       </c>
       <c r="C11">
-        <v>0.45</v>
+        <v>0.11111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-25.215</v>
+        <v>-1.1990000000000001</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.12346</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-36.868000000000002</v>
+        <v>-1.3420000000000001</v>
       </c>
       <c r="C13">
-        <v>0.55000000000000004</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,10 +580,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-51.704000000000001</v>
+        <v>-1.4910000000000001</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.14815</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-68.427999999999997</v>
+        <v>-1.6479999999999999</v>
       </c>
       <c r="C15">
-        <v>0.65</v>
+        <v>0.16048999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,10 +602,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-86.870999999999995</v>
+        <v>-1.8160000000000001</v>
       </c>
       <c r="C16">
-        <v>0.7</v>
+        <v>0.17283999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,10 +613,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-106.23099999999999</v>
+        <v>-2.02</v>
       </c>
       <c r="C17">
-        <v>0.75</v>
+        <v>0.18518999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +624,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-126.236</v>
+        <v>-2.262</v>
       </c>
       <c r="C18">
-        <v>0.8</v>
+        <v>0.19753000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +635,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-146.72</v>
+        <v>-2.5990000000000002</v>
       </c>
       <c r="C19">
-        <v>0.85</v>
+        <v>0.20988000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-167.6</v>
+        <v>-3.0339999999999998</v>
       </c>
       <c r="C20">
-        <v>0.9</v>
+        <v>0.22222</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,10 +657,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-188.839</v>
+        <v>-3.5950000000000002</v>
       </c>
       <c r="C21">
-        <v>0.95</v>
+        <v>0.23457</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,10 +668,571 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-210.25299999999999</v>
+        <v>-4.2830000000000004</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.24690999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-4.9710000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.25925999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-5.742</v>
+      </c>
+      <c r="C24">
+        <v>0.27160000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-6.4560000000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.28394999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-7.133</v>
+      </c>
+      <c r="C26">
+        <v>0.29630000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-7.7960000000000003</v>
+      </c>
+      <c r="C27">
+        <v>0.30864000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-8.4789999999999992</v>
+      </c>
+      <c r="C28">
+        <v>0.32099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-9.2219999999999995</v>
+      </c>
+      <c r="C29">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-9.9870000000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.34567999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-10.779</v>
+      </c>
+      <c r="C31">
+        <v>0.35802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-11.602</v>
+      </c>
+      <c r="C32">
+        <v>0.37036999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-12.444000000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.38272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-13.295</v>
+      </c>
+      <c r="C34">
+        <v>0.39506000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-14.178000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.40740999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-15.101000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.41975000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-16.195</v>
+      </c>
+      <c r="C37">
+        <v>0.43209999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-17.420999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.44444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-18.75</v>
+      </c>
+      <c r="C39">
+        <v>0.45678999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-20.225999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.46914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-21.876000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.48148000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-23.75</v>
+      </c>
+      <c r="C42">
+        <v>0.49382999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-25.916</v>
+      </c>
+      <c r="C43">
+        <v>0.50617000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-28.436</v>
+      </c>
+      <c r="C44">
+        <v>0.51851999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-31.187000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.53086</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-34.167000000000002</v>
+      </c>
+      <c r="C46">
+        <v>0.54320999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-37.383000000000003</v>
+      </c>
+      <c r="C47">
+        <v>0.55556000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-40.823</v>
+      </c>
+      <c r="C48">
+        <v>0.56789999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-44.374000000000002</v>
+      </c>
+      <c r="C49">
+        <v>0.58025000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-48.051000000000002</v>
+      </c>
+      <c r="C50">
+        <v>0.59258999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-51.86</v>
+      </c>
+      <c r="C51">
+        <v>0.60494000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-55.735999999999997</v>
+      </c>
+      <c r="C52">
+        <v>0.61728000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>-59.735999999999997</v>
+      </c>
+      <c r="C53">
+        <v>0.62963000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>-63.837000000000003</v>
+      </c>
+      <c r="C54">
+        <v>0.64198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-68.016999999999996</v>
+      </c>
+      <c r="C55">
+        <v>0.65432000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>-72.311999999999998</v>
+      </c>
+      <c r="C56">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>-76.718999999999994</v>
+      </c>
+      <c r="C57">
+        <v>0.67901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-81.186000000000007</v>
+      </c>
+      <c r="C58">
+        <v>0.69135999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>-85.700999999999993</v>
+      </c>
+      <c r="C59">
+        <v>0.70369999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>-90.251000000000005</v>
+      </c>
+      <c r="C60">
+        <v>0.71604999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-94.837999999999994</v>
+      </c>
+      <c r="C61">
+        <v>0.72840000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>-99.465999999999994</v>
+      </c>
+      <c r="C62">
+        <v>0.74073999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>-104.15</v>
+      </c>
+      <c r="C63">
+        <v>0.75309000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>-108.86799999999999</v>
+      </c>
+      <c r="C64">
+        <v>0.76543000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>-113.611</v>
+      </c>
+      <c r="C65">
+        <v>0.77778000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>-118.38500000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.79012000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>-123.176</v>
+      </c>
+      <c r="C67">
+        <v>0.80247000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>-127.989</v>
+      </c>
+      <c r="C68">
+        <v>0.81481000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>-132.83699999999999</v>
+      </c>
+      <c r="C69">
+        <v>0.82716000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>-137.71199999999999</v>
+      </c>
+      <c r="C70">
+        <v>0.83950999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-142.619</v>
+      </c>
+      <c r="C71">
+        <v>0.85185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-147.542</v>
+      </c>
+      <c r="C72">
+        <v>0.86419999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>-152.488</v>
+      </c>
+      <c r="C73">
+        <v>0.87653999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A559C-CD77-405F-BB96-45007B50ED10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA31234-250E-48E1-AA46-678399FB69CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
-    <sheet name="jag_b500c" sheetId="3" r:id="rId2"/>
-    <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId3"/>
-    <sheet name="jag_b500a" sheetId="4" r:id="rId4"/>
-    <sheet name="V10_drillweich" sheetId="5" r:id="rId5"/>
-    <sheet name="V10_axis" sheetId="6" r:id="rId6"/>
+    <sheet name="V10_theta_max" sheetId="7" r:id="rId2"/>
+    <sheet name="jag_b500c" sheetId="3" r:id="rId3"/>
+    <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId4"/>
+    <sheet name="jag_b500a" sheetId="4" r:id="rId5"/>
+    <sheet name="V10_drillweich" sheetId="5" r:id="rId6"/>
+    <sheet name="V10_axis" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -426,13 +427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF59AC3-EDBC-4E60-87D2-EEFBB85DEEF1}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="A74" sqref="A74:XFD85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -454,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -465,7 +466,7 @@
         <v>1.2345999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -476,7 +477,7 @@
         <v>2.4691000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -487,7 +488,7 @@
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -498,7 +499,7 @@
         <v>4.9383000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -509,7 +510,7 @@
         <v>6.1727999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -520,7 +521,7 @@
         <v>7.4074000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -531,7 +532,7 @@
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -542,7 +543,7 @@
         <v>9.8765000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -553,7 +554,7 @@
         <v>0.11111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -564,7 +565,7 @@
         <v>0.12346</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -575,7 +576,7 @@
         <v>0.1358</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -586,7 +587,7 @@
         <v>0.14815</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -597,7 +598,7 @@
         <v>0.16048999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -608,7 +609,7 @@
         <v>0.17283999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -619,7 +620,7 @@
         <v>0.18518999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -630,7 +631,7 @@
         <v>0.19753000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -641,7 +642,7 @@
         <v>0.20988000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -652,7 +653,7 @@
         <v>0.22222</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -663,7 +664,7 @@
         <v>0.23457</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -674,7 +675,7 @@
         <v>0.24690999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -685,7 +686,7 @@
         <v>0.25925999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -696,7 +697,7 @@
         <v>0.27160000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -707,7 +708,7 @@
         <v>0.28394999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -718,7 +719,7 @@
         <v>0.29630000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -729,7 +730,7 @@
         <v>0.30864000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -740,7 +741,7 @@
         <v>0.32099</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -751,7 +752,7 @@
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -762,7 +763,7 @@
         <v>0.34567999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -773,7 +774,7 @@
         <v>0.35802</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -784,7 +785,7 @@
         <v>0.37036999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -795,7 +796,7 @@
         <v>0.38272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -806,7 +807,7 @@
         <v>0.39506000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -817,7 +818,7 @@
         <v>0.40740999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -828,7 +829,7 @@
         <v>0.41975000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -839,7 +840,7 @@
         <v>0.43209999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -850,7 +851,7 @@
         <v>0.44444</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -861,7 +862,7 @@
         <v>0.45678999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -872,7 +873,7 @@
         <v>0.46914</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -883,7 +884,7 @@
         <v>0.48148000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -894,7 +895,7 @@
         <v>0.49382999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -905,7 +906,7 @@
         <v>0.50617000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -916,7 +917,7 @@
         <v>0.51851999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -927,7 +928,7 @@
         <v>0.53086</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -938,7 +939,7 @@
         <v>0.54320999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -949,7 +950,7 @@
         <v>0.55556000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -960,7 +961,7 @@
         <v>0.56789999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -971,7 +972,7 @@
         <v>0.58025000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -982,7 +983,7 @@
         <v>0.59258999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -993,7 +994,7 @@
         <v>0.60494000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>0.61728000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>0.62963000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>0.64198</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>0.65432000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>0.66666999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>0.67901</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>0.69135999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>0.70369999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>0.71604999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>0.72840000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>0.74073999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>0.75309000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>0.76543000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>0.77778000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>0.79012000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>0.80247000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>0.81481000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>0.82716000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>0.83950999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>0.85185</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>0.86419999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1241,6 +1242,824 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC32E6-FA2C-4F52-BEB6-ECE80E3F56CD}">
+  <dimension ref="A1:C73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:C85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.2345999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.23499999999999999</v>
+      </c>
+      <c r="C4">
+        <v>2.4691000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="C5">
+        <v>3.7037E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.47</v>
+      </c>
+      <c r="C6">
+        <v>4.9383000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.58699999999999997</v>
+      </c>
+      <c r="C7">
+        <v>6.1727999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.70499999999999996</v>
+      </c>
+      <c r="C8">
+        <v>7.4074000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-0.82199999999999995</v>
+      </c>
+      <c r="C9">
+        <v>8.6419999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-0.93899999999999995</v>
+      </c>
+      <c r="C10">
+        <v>9.8765000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-1.0609999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.11111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-1.1990000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.12346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-1.3420000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.1358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-1.4910000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.14815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-1.6479999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.16048999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-1.8160000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.17283999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-2.02</v>
+      </c>
+      <c r="C17">
+        <v>0.18518999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-2.262</v>
+      </c>
+      <c r="C18">
+        <v>0.19753000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-2.5990000000000002</v>
+      </c>
+      <c r="C19">
+        <v>0.20988000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-3.0339999999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.22222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-3.5950000000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.23457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-4.2830000000000004</v>
+      </c>
+      <c r="C22">
+        <v>0.24690999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-4.9710000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.25925999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-5.742</v>
+      </c>
+      <c r="C24">
+        <v>0.27160000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-6.4560000000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.28394999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-7.133</v>
+      </c>
+      <c r="C26">
+        <v>0.29630000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-7.7960000000000003</v>
+      </c>
+      <c r="C27">
+        <v>0.30864000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-8.4819999999999993</v>
+      </c>
+      <c r="C28">
+        <v>0.32099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-9.2319999999999993</v>
+      </c>
+      <c r="C29">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-10.006</v>
+      </c>
+      <c r="C30">
+        <v>0.34567999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-10.814</v>
+      </c>
+      <c r="C31">
+        <v>0.35802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-11.654999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.37036999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-12.518000000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.38272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-13.39</v>
+      </c>
+      <c r="C34">
+        <v>0.39506000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-14.307</v>
+      </c>
+      <c r="C35">
+        <v>0.40740999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-15.255000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.41975000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-16.428000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.43209999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-17.753</v>
+      </c>
+      <c r="C38">
+        <v>0.44444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-19.225000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.45678999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-20.905999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.46914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-22.856999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.48148000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-25.183</v>
+      </c>
+      <c r="C42">
+        <v>0.49382999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-27.971</v>
+      </c>
+      <c r="C43">
+        <v>0.50617000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-31.09</v>
+      </c>
+      <c r="C44">
+        <v>0.51851999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-34.429000000000002</v>
+      </c>
+      <c r="C45">
+        <v>0.53086</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-37.947000000000003</v>
+      </c>
+      <c r="C46">
+        <v>0.54320999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-41.671999999999997</v>
+      </c>
+      <c r="C47">
+        <v>0.55556000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-45.548999999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.56789999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-49.527000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.58025000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-53.594000000000001</v>
+      </c>
+      <c r="C50">
+        <v>0.59258999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-57.756999999999998</v>
+      </c>
+      <c r="C51">
+        <v>0.60494000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-62.039000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.61728000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>-66.37</v>
+      </c>
+      <c r="C53">
+        <v>0.62963000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>-70.745000000000005</v>
+      </c>
+      <c r="C54">
+        <v>0.64198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-75.2</v>
+      </c>
+      <c r="C55">
+        <v>0.65432000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>-79.671999999999997</v>
+      </c>
+      <c r="C56">
+        <v>0.66666999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>-84.152000000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.67901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-88.715999999999994</v>
+      </c>
+      <c r="C58">
+        <v>0.69135999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>-93.313999999999993</v>
+      </c>
+      <c r="C59">
+        <v>0.70369999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>-97.950999999999993</v>
+      </c>
+      <c r="C60">
+        <v>0.71604999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-102.619</v>
+      </c>
+      <c r="C61">
+        <v>0.72840000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>-107.295</v>
+      </c>
+      <c r="C62">
+        <v>0.74073999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>-111.98</v>
+      </c>
+      <c r="C63">
+        <v>0.75309000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>-116.687</v>
+      </c>
+      <c r="C64">
+        <v>0.76543000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>-121.42</v>
+      </c>
+      <c r="C65">
+        <v>0.77778000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>-126.176</v>
+      </c>
+      <c r="C66">
+        <v>0.79012000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>-130.96600000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.80247000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>-135.762</v>
+      </c>
+      <c r="C68">
+        <v>0.81481000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>-140.56299999999999</v>
+      </c>
+      <c r="C69">
+        <v>0.82716000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>-145.375</v>
+      </c>
+      <c r="C70">
+        <v>0.83950999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-150.20400000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.85185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-155.03399999999999</v>
+      </c>
+      <c r="C72">
+        <v>0.86419999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>-159.87</v>
+      </c>
+      <c r="C73">
+        <v>0.87653999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D900DCE-0A2E-463F-93CB-27F02159151E}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -1248,9 +2067,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +2080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1272,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1283,7 +2102,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1294,7 +2113,7 @@
         <v>0.43158000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1305,7 +2124,7 @@
         <v>0.46316000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1316,7 +2135,7 @@
         <v>0.49474000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1327,7 +2146,7 @@
         <v>0.52632000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1338,7 +2157,7 @@
         <v>0.55789</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1349,7 +2168,7 @@
         <v>0.58947000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1360,7 +2179,7 @@
         <v>0.62104999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1371,7 +2190,7 @@
         <v>0.65263000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1382,7 +2201,7 @@
         <v>0.68420999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1393,7 +2212,7 @@
         <v>0.71579000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1404,7 +2223,7 @@
         <v>0.74736999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1415,7 +2234,7 @@
         <v>0.77895000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1426,7 +2245,7 @@
         <v>0.81052999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1437,7 +2256,7 @@
         <v>0.84211000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1448,7 +2267,7 @@
         <v>0.87368000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1459,7 +2278,7 @@
         <v>0.90525999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1470,7 +2289,7 @@
         <v>0.93684000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1481,7 +2300,7 @@
         <v>0.96841999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1497,7 +2316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D5F48-4F61-4D0C-8F4B-10B85D7CC1D7}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -1505,9 +2324,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1529,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1540,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1551,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1562,7 +2381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1573,7 +2392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1584,7 +2403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1595,7 +2414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1606,7 +2425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1617,7 +2436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1628,7 +2447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1639,7 +2458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1650,7 +2469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1661,7 +2480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1672,7 +2491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1683,7 +2502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1694,7 +2513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1705,7 +2524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1716,7 +2535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1727,7 +2546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1738,7 +2557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1754,7 +2573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D868CF-29DB-4618-9EE8-B3D60C905B81}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1762,9 +2581,9 @@
       <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1775,7 +2594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1786,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1797,7 +2616,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1808,7 +2627,7 @@
         <v>0.46666999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1819,7 +2638,7 @@
         <v>0.53332999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1830,7 +2649,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1841,7 +2660,7 @@
         <v>0.66666999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1852,7 +2671,7 @@
         <v>0.73333000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1863,7 +2682,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1874,7 +2693,7 @@
         <v>0.86667000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1885,7 +2704,7 @@
         <v>0.93332999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1901,7 +2720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163D0521-112D-4C91-828F-188B0ECA5FA9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -1909,9 +2728,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1933,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1944,7 +2763,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1955,7 +2774,7 @@
         <v>0.43158000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1966,7 +2785,7 @@
         <v>0.46316000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1977,7 +2796,7 @@
         <v>0.49474000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1988,7 +2807,7 @@
         <v>0.52632000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1999,7 +2818,7 @@
         <v>0.55789</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2010,7 +2829,7 @@
         <v>0.58947000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2021,7 +2840,7 @@
         <v>0.62104999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2032,7 +2851,7 @@
         <v>0.65263000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2043,7 +2862,7 @@
         <v>0.68420999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2054,7 +2873,7 @@
         <v>0.71579000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2065,7 +2884,7 @@
         <v>0.74736999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2076,7 +2895,7 @@
         <v>0.77895000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2087,7 +2906,7 @@
         <v>0.81052999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2098,7 +2917,7 @@
         <v>0.84211000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2109,7 +2928,7 @@
         <v>0.87368000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2120,7 +2939,7 @@
         <v>0.90525999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2131,7 +2950,7 @@
         <v>0.93684000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2142,7 +2961,7 @@
         <v>0.96841999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2158,7 +2977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE4E82F-2F13-4B3F-B913-0381D7A93385}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2166,9 +2985,9 @@
       <selection activeCell="C6" sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2190,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2201,7 +3020,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2212,7 +3031,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2223,7 +3042,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2234,7 +3053,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2245,7 +3064,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2256,7 +3075,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2267,7 +3086,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2278,7 +3097,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2289,7 +3108,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2300,7 +3119,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA31234-250E-48E1-AA46-678399FB69CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA960FC9-283A-42F6-A545-9D81EDD1356F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -425,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF59AC3-EDBC-4E60-87D2-EEFBB85DEEF1}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -455,785 +455,752 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.11700000000000001</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="C3">
         <v>1.2345999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.23499999999999999</v>
+        <v>-0.19400000000000001</v>
       </c>
       <c r="C4">
         <v>2.4691000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.35199999999999998</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="C5">
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.47</v>
+        <v>-0.38700000000000001</v>
       </c>
       <c r="C6">
         <v>4.9383000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.58699999999999997</v>
+        <v>-0.48399999999999999</v>
       </c>
       <c r="C7">
         <v>6.1727999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.70499999999999996</v>
+        <v>-0.58099999999999996</v>
       </c>
       <c r="C8">
         <v>7.4074000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.82199999999999995</v>
+        <v>-0.67700000000000005</v>
       </c>
       <c r="C9">
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.93899999999999995</v>
+        <v>-0.77400000000000002</v>
       </c>
       <c r="C10">
         <v>9.8765000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.0609999999999999</v>
+        <v>-0.871</v>
       </c>
       <c r="C11">
         <v>0.11111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.1990000000000001</v>
+        <v>-0.97099999999999997</v>
       </c>
       <c r="C12">
         <v>0.12346</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.3420000000000001</v>
+        <v>-1.081</v>
       </c>
       <c r="C13">
         <v>0.1358</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.4910000000000001</v>
+        <v>-1.1990000000000001</v>
       </c>
       <c r="C14">
         <v>0.14815</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.6479999999999999</v>
+        <v>-1.3120000000000001</v>
       </c>
       <c r="C15">
         <v>0.16048999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.8160000000000001</v>
+        <v>-1.4330000000000001</v>
       </c>
       <c r="C16">
         <v>0.17283999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-2.02</v>
+        <v>-1.5580000000000001</v>
       </c>
       <c r="C17">
         <v>0.18518999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-2.262</v>
+        <v>-1.6859999999999999</v>
       </c>
       <c r="C18">
         <v>0.19753000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-2.5990000000000002</v>
+        <v>-1.8169999999999999</v>
       </c>
       <c r="C19">
         <v>0.20988000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-3.0339999999999998</v>
+        <v>-1.9650000000000001</v>
       </c>
       <c r="C20">
         <v>0.22222</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-3.5950000000000002</v>
+        <v>-2.1280000000000001</v>
       </c>
       <c r="C21">
         <v>0.23457</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-4.2830000000000004</v>
+        <v>-2.3050000000000002</v>
       </c>
       <c r="C22">
         <v>0.24690999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-4.9710000000000001</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="C23">
         <v>0.25925999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-5.742</v>
+        <v>-2.738</v>
       </c>
       <c r="C24">
         <v>0.27160000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-6.4560000000000004</v>
+        <v>-2.9910000000000001</v>
       </c>
       <c r="C25">
         <v>0.28394999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-7.133</v>
+        <v>-3.262</v>
       </c>
       <c r="C26">
         <v>0.29630000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-7.7960000000000003</v>
+        <v>-3.5590000000000002</v>
       </c>
       <c r="C27">
         <v>0.30864000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-8.4789999999999992</v>
+        <v>-3.871</v>
       </c>
       <c r="C28">
         <v>0.32099</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-9.2219999999999995</v>
+        <v>-4.1859999999999999</v>
       </c>
       <c r="C29">
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-9.9870000000000001</v>
+        <v>-4.4960000000000004</v>
       </c>
       <c r="C30">
         <v>0.34567999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-10.779</v>
+        <v>-4.8079999999999998</v>
       </c>
       <c r="C31">
         <v>0.35802</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-11.602</v>
+        <v>-5.1289999999999996</v>
       </c>
       <c r="C32">
         <v>0.37036999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-12.444000000000001</v>
+        <v>-5.4589999999999996</v>
       </c>
       <c r="C33">
         <v>0.38272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-13.295</v>
+        <v>-5.7960000000000003</v>
       </c>
       <c r="C34">
         <v>0.39506000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-14.178000000000001</v>
+        <v>-6.1479999999999997</v>
       </c>
       <c r="C35">
         <v>0.40740999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-15.101000000000001</v>
+        <v>-6.5069999999999997</v>
       </c>
       <c r="C36">
         <v>0.41975000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-16.195</v>
+        <v>-6.8739999999999997</v>
       </c>
       <c r="C37">
         <v>0.43209999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-17.420999999999999</v>
+        <v>-7.2640000000000002</v>
       </c>
       <c r="C38">
         <v>0.44444</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-18.75</v>
+        <v>-7.6769999999999996</v>
       </c>
       <c r="C39">
         <v>0.45678999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-20.225999999999999</v>
+        <v>-8.1189999999999998</v>
       </c>
       <c r="C40">
         <v>0.46914</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-21.876000000000001</v>
+        <v>-8.5749999999999993</v>
       </c>
       <c r="C41">
         <v>0.48148000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-23.75</v>
+        <v>-9.0440000000000005</v>
       </c>
       <c r="C42">
         <v>0.49382999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-25.916</v>
+        <v>-9.5289999999999999</v>
       </c>
       <c r="C43">
         <v>0.50617000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-28.436</v>
+        <v>-10.02</v>
       </c>
       <c r="C44">
         <v>0.51851999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-31.187000000000001</v>
+        <v>-10.523999999999999</v>
       </c>
       <c r="C45">
         <v>0.53086</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-34.167000000000002</v>
+        <v>-11.071</v>
       </c>
       <c r="C46">
         <v>0.54320999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-37.383000000000003</v>
+        <v>-11.708</v>
       </c>
       <c r="C47">
         <v>0.55556000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-40.823</v>
+        <v>-12.403</v>
       </c>
       <c r="C48">
         <v>0.56789999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-44.374000000000002</v>
+        <v>-13.101000000000001</v>
       </c>
       <c r="C49">
         <v>0.58025000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-48.051000000000002</v>
+        <v>-13.807</v>
       </c>
       <c r="C50">
         <v>0.59258999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-51.86</v>
+        <v>-14.54</v>
       </c>
       <c r="C51">
         <v>0.60494000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-55.735999999999997</v>
+        <v>-15.298999999999999</v>
       </c>
       <c r="C52">
         <v>0.61728000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-59.735999999999997</v>
+        <v>-16.113</v>
       </c>
       <c r="C53">
         <v>0.62963000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-63.837000000000003</v>
+        <v>-17.007999999999999</v>
       </c>
       <c r="C54">
         <v>0.64198</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-68.016999999999996</v>
+        <v>-18.048999999999999</v>
       </c>
       <c r="C55">
         <v>0.65432000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-72.311999999999998</v>
+        <v>-19.132999999999999</v>
       </c>
       <c r="C56">
         <v>0.66666999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-76.718999999999994</v>
+        <v>-20.3</v>
       </c>
       <c r="C57">
         <v>0.67901</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-81.186000000000007</v>
+        <v>-21.577000000000002</v>
       </c>
       <c r="C58">
         <v>0.69135999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-85.700999999999993</v>
+        <v>-23.088000000000001</v>
       </c>
       <c r="C59">
         <v>0.70369999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-90.251000000000005</v>
+        <v>-25.094000000000001</v>
       </c>
       <c r="C60">
         <v>0.71604999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-94.837999999999994</v>
+        <v>-27.638000000000002</v>
       </c>
       <c r="C61">
         <v>0.72840000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-99.465999999999994</v>
+        <v>-30.933</v>
       </c>
       <c r="C62">
         <v>0.74073999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-104.15</v>
+        <v>-35.563000000000002</v>
       </c>
       <c r="C63">
         <v>0.75309000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-108.86799999999999</v>
+        <v>-42.058</v>
       </c>
       <c r="C64">
         <v>0.76543000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-113.611</v>
+        <v>-51.09</v>
       </c>
       <c r="C65">
         <v>0.77778000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-118.38500000000001</v>
+        <v>-63.125</v>
       </c>
       <c r="C66">
         <v>0.79012000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-123.176</v>
+        <v>-78.141000000000005</v>
       </c>
       <c r="C67">
         <v>0.80247000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-127.989</v>
+        <v>-95.992999999999995</v>
       </c>
       <c r="C68">
         <v>0.81481000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-132.83699999999999</v>
+        <v>-116.491</v>
       </c>
       <c r="C69">
         <v>0.82716000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-137.71199999999999</v>
+        <v>-138.291</v>
       </c>
       <c r="C70">
         <v>0.83950999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>-142.619</v>
-      </c>
-      <c r="C71">
-        <v>0.85185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>-147.542</v>
-      </c>
-      <c r="C72">
-        <v>0.86419999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>-152.488</v>
-      </c>
-      <c r="C73">
-        <v>0.87653999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1245,13 +1212,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC32E6-FA2C-4F52-BEB6-ECE80E3F56CD}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A74" sqref="A74:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1273,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1284,7 +1251,7 @@
         <v>1.2345999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1295,7 +1262,7 @@
         <v>2.4691000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1306,7 +1273,7 @@
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1317,7 +1284,7 @@
         <v>4.9383000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1328,7 +1295,7 @@
         <v>6.1727999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1339,7 +1306,7 @@
         <v>7.4074000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1350,7 +1317,7 @@
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1361,7 +1328,7 @@
         <v>9.8765000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1372,7 +1339,7 @@
         <v>0.11111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1383,7 +1350,7 @@
         <v>0.12346</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1394,7 +1361,7 @@
         <v>0.1358</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1405,7 +1372,7 @@
         <v>0.14815</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1416,7 +1383,7 @@
         <v>0.16048999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1427,7 +1394,7 @@
         <v>0.17283999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1438,7 +1405,7 @@
         <v>0.18518999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1449,7 +1416,7 @@
         <v>0.19753000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1460,7 +1427,7 @@
         <v>0.20988000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1471,7 +1438,7 @@
         <v>0.22222</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1482,7 +1449,7 @@
         <v>0.23457</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1493,7 +1460,7 @@
         <v>0.24690999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1504,7 +1471,7 @@
         <v>0.25925999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1515,7 +1482,7 @@
         <v>0.27160000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1526,7 +1493,7 @@
         <v>0.28394999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1537,7 +1504,7 @@
         <v>0.29630000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1548,7 +1515,7 @@
         <v>0.30864000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1559,7 +1526,7 @@
         <v>0.32099</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1570,7 +1537,7 @@
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1581,7 +1548,7 @@
         <v>0.34567999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1592,7 +1559,7 @@
         <v>0.35802</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1603,7 +1570,7 @@
         <v>0.37036999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1614,7 +1581,7 @@
         <v>0.38272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1625,7 +1592,7 @@
         <v>0.39506000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1636,7 +1603,7 @@
         <v>0.40740999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1647,7 +1614,7 @@
         <v>0.41975000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1658,7 +1625,7 @@
         <v>0.43209999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1669,7 +1636,7 @@
         <v>0.44444</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1680,7 +1647,7 @@
         <v>0.45678999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1691,7 +1658,7 @@
         <v>0.46914</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1702,7 +1669,7 @@
         <v>0.48148000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1713,7 +1680,7 @@
         <v>0.49382999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1724,7 +1691,7 @@
         <v>0.50617000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1735,7 +1702,7 @@
         <v>0.51851999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1746,7 +1713,7 @@
         <v>0.53086</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1757,7 +1724,7 @@
         <v>0.54320999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1768,7 +1735,7 @@
         <v>0.55556000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1779,7 +1746,7 @@
         <v>0.56789999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1790,7 +1757,7 @@
         <v>0.58025000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1801,7 +1768,7 @@
         <v>0.59258999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1812,7 +1779,7 @@
         <v>0.60494000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1823,7 +1790,7 @@
         <v>0.61728000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1834,7 +1801,7 @@
         <v>0.62963000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1845,7 +1812,7 @@
         <v>0.64198</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1856,7 +1823,7 @@
         <v>0.65432000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1867,7 +1834,7 @@
         <v>0.66666999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1878,7 +1845,7 @@
         <v>0.67901</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1889,7 +1856,7 @@
         <v>0.69135999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1900,7 +1867,7 @@
         <v>0.70369999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1911,7 +1878,7 @@
         <v>0.71604999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1922,7 +1889,7 @@
         <v>0.72840000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1933,7 +1900,7 @@
         <v>0.74073999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1944,7 +1911,7 @@
         <v>0.75309000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1955,7 +1922,7 @@
         <v>0.76543000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1966,7 +1933,7 @@
         <v>0.77778000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1977,7 +1944,7 @@
         <v>0.79012000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1988,7 +1955,7 @@
         <v>0.80247000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1999,7 +1966,7 @@
         <v>0.81481000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2010,7 +1977,7 @@
         <v>0.82716000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2021,7 +1988,7 @@
         <v>0.83950999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2032,7 +1999,7 @@
         <v>0.85185</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2043,7 +2010,7 @@
         <v>0.86419999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2067,9 +2034,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2080,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2091,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2102,7 +2069,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2113,7 +2080,7 @@
         <v>0.43158000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2124,7 +2091,7 @@
         <v>0.46316000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2135,7 +2102,7 @@
         <v>0.49474000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2146,7 +2113,7 @@
         <v>0.52632000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2157,7 +2124,7 @@
         <v>0.55789</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2168,7 +2135,7 @@
         <v>0.58947000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2179,7 +2146,7 @@
         <v>0.62104999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2190,7 +2157,7 @@
         <v>0.65263000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2201,7 +2168,7 @@
         <v>0.68420999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2212,7 +2179,7 @@
         <v>0.71579000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2223,7 +2190,7 @@
         <v>0.74736999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2234,7 +2201,7 @@
         <v>0.77895000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2245,7 +2212,7 @@
         <v>0.81052999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2256,7 +2223,7 @@
         <v>0.84211000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2267,7 +2234,7 @@
         <v>0.87368000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2278,7 +2245,7 @@
         <v>0.90525999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2289,7 +2256,7 @@
         <v>0.93684000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2300,7 +2267,7 @@
         <v>0.96841999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2324,9 +2291,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2348,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2359,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2370,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2381,7 +2348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2392,7 +2359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2403,7 +2370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2414,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2425,7 +2392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2436,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2447,7 +2414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2458,7 +2425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2469,7 +2436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2480,7 +2447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2491,7 +2458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2502,7 +2469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2513,7 +2480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2524,7 +2491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2535,7 +2502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2546,7 +2513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2557,7 +2524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2581,9 +2548,9 @@
       <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2605,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2616,7 +2583,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2627,7 +2594,7 @@
         <v>0.46666999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2638,7 +2605,7 @@
         <v>0.53332999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2649,7 +2616,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2660,7 +2627,7 @@
         <v>0.66666999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2671,7 +2638,7 @@
         <v>0.73333000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2682,7 +2649,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2693,7 +2660,7 @@
         <v>0.86667000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2704,7 +2671,7 @@
         <v>0.93332999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2728,9 +2695,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2752,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2763,7 +2730,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2774,7 +2741,7 @@
         <v>0.43158000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2785,7 +2752,7 @@
         <v>0.46316000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2796,7 +2763,7 @@
         <v>0.49474000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2807,7 +2774,7 @@
         <v>0.52632000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2818,7 +2785,7 @@
         <v>0.55789</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2829,7 +2796,7 @@
         <v>0.58947000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2840,7 +2807,7 @@
         <v>0.62104999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2851,7 +2818,7 @@
         <v>0.65263000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2862,7 +2829,7 @@
         <v>0.68420999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2873,7 +2840,7 @@
         <v>0.71579000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2884,7 +2851,7 @@
         <v>0.74736999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2895,7 +2862,7 @@
         <v>0.77895000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2906,7 +2873,7 @@
         <v>0.81052999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2917,7 +2884,7 @@
         <v>0.84211000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2928,7 +2895,7 @@
         <v>0.87368000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2939,7 +2906,7 @@
         <v>0.90525999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2950,7 +2917,7 @@
         <v>0.93684000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2961,7 +2928,7 @@
         <v>0.96841999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2985,9 +2952,9 @@
       <selection activeCell="C6" sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2998,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3009,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3020,7 +2987,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3031,7 +2998,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3042,7 +3009,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3053,7 +3020,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3064,7 +3031,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3075,7 +3042,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3086,7 +3053,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3097,7 +3064,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3108,7 +3075,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3119,7 +3086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA960FC9-283A-42F6-A545-9D81EDD1356F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7276F79A-DEDB-4D52-8043-043D6B6559B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
-    <sheet name="V10_theta_max" sheetId="7" r:id="rId2"/>
-    <sheet name="jag_b500c" sheetId="3" r:id="rId3"/>
-    <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId4"/>
-    <sheet name="jag_b500a" sheetId="4" r:id="rId5"/>
-    <sheet name="V10_drillweich" sheetId="5" r:id="rId6"/>
-    <sheet name="V10_axis" sheetId="6" r:id="rId7"/>
+    <sheet name="V10_fein" sheetId="8" r:id="rId2"/>
+    <sheet name="V10_theta_max" sheetId="7" r:id="rId3"/>
+    <sheet name="jag_b500c" sheetId="3" r:id="rId4"/>
+    <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId5"/>
+    <sheet name="jag_b500a" sheetId="4" r:id="rId6"/>
+    <sheet name="V10_drillweich" sheetId="5" r:id="rId7"/>
+    <sheet name="V10_axis" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -425,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF59AC3-EDBC-4E60-87D2-EEFBB85DEEF1}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:C84"/>
+    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="C3">
         <v>1.2345999999999999E-2</v>
@@ -471,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.19400000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="C4">
         <v>2.4691000000000001E-2</v>
@@ -482,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.28999999999999998</v>
+        <v>-0.24</v>
       </c>
       <c r="C5">
         <v>3.7037E-2</v>
@@ -493,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.38700000000000001</v>
+        <v>-0.32</v>
       </c>
       <c r="C6">
         <v>4.9383000000000003E-2</v>
@@ -504,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.48399999999999999</v>
+        <v>-0.4</v>
       </c>
       <c r="C7">
         <v>6.1727999999999998E-2</v>
@@ -515,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.58099999999999996</v>
+        <v>-0.48</v>
       </c>
       <c r="C8">
         <v>7.4074000000000001E-2</v>
@@ -526,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.67700000000000005</v>
+        <v>-0.56100000000000005</v>
       </c>
       <c r="C9">
         <v>8.6419999999999997E-2</v>
@@ -537,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.77400000000000002</v>
+        <v>-0.64100000000000001</v>
       </c>
       <c r="C10">
         <v>9.8765000000000006E-2</v>
@@ -548,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.871</v>
+        <v>-0.72099999999999997</v>
       </c>
       <c r="C11">
         <v>0.11111</v>
@@ -559,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.97099999999999997</v>
+        <v>-0.80100000000000005</v>
       </c>
       <c r="C12">
         <v>0.12346</v>
@@ -570,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.081</v>
+        <v>-0.88200000000000001</v>
       </c>
       <c r="C13">
         <v>0.1358</v>
@@ -581,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.1990000000000001</v>
+        <v>-0.97099999999999997</v>
       </c>
       <c r="C14">
         <v>0.14815</v>
@@ -592,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.3120000000000001</v>
+        <v>-1.0649999999999999</v>
       </c>
       <c r="C15">
         <v>0.16048999999999999</v>
@@ -603,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.4330000000000001</v>
+        <v>-1.161</v>
       </c>
       <c r="C16">
         <v>0.17283999999999999</v>
@@ -614,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-1.5580000000000001</v>
+        <v>-1.2549999999999999</v>
       </c>
       <c r="C17">
         <v>0.18518999999999999</v>
@@ -625,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.6859999999999999</v>
+        <v>-1.353</v>
       </c>
       <c r="C18">
         <v>0.19753000000000001</v>
@@ -636,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.8169999999999999</v>
+        <v>-1.4530000000000001</v>
       </c>
       <c r="C19">
         <v>0.20988000000000001</v>
@@ -647,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.9650000000000001</v>
+        <v>-1.556</v>
       </c>
       <c r="C20">
         <v>0.22222</v>
@@ -658,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-2.1280000000000001</v>
+        <v>-1.66</v>
       </c>
       <c r="C21">
         <v>0.23457</v>
@@ -669,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-2.3050000000000002</v>
+        <v>-1.766</v>
       </c>
       <c r="C22">
         <v>0.24690999999999999</v>
@@ -680,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-2.5099999999999998</v>
+        <v>-1.8740000000000001</v>
       </c>
       <c r="C23">
         <v>0.25925999999999999</v>
@@ -691,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-2.738</v>
+        <v>-1.994</v>
       </c>
       <c r="C24">
         <v>0.27160000000000001</v>
@@ -702,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-2.9910000000000001</v>
+        <v>-2.1179999999999999</v>
       </c>
       <c r="C25">
         <v>0.28394999999999998</v>
@@ -713,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-3.262</v>
+        <v>-2.2519999999999998</v>
       </c>
       <c r="C26">
         <v>0.29630000000000001</v>
@@ -724,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-3.5590000000000002</v>
+        <v>-2.3980000000000001</v>
       </c>
       <c r="C27">
         <v>0.30864000000000003</v>
@@ -735,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-3.871</v>
+        <v>-2.5529999999999999</v>
       </c>
       <c r="C28">
         <v>0.32099</v>
@@ -746,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-4.1859999999999999</v>
+        <v>-2.7189999999999999</v>
       </c>
       <c r="C29">
         <v>0.33333000000000002</v>
@@ -757,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-4.4960000000000004</v>
+        <v>-2.895</v>
       </c>
       <c r="C30">
         <v>0.34567999999999999</v>
@@ -768,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-4.8079999999999998</v>
+        <v>-3.0750000000000002</v>
       </c>
       <c r="C31">
         <v>0.35802</v>
@@ -779,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-5.1289999999999996</v>
+        <v>-3.2610000000000001</v>
       </c>
       <c r="C32">
         <v>0.37036999999999998</v>
@@ -790,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-5.4589999999999996</v>
+        <v>-3.4529999999999998</v>
       </c>
       <c r="C33">
         <v>0.38272</v>
@@ -801,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-5.7960000000000003</v>
+        <v>-3.6539999999999999</v>
       </c>
       <c r="C34">
         <v>0.39506000000000002</v>
@@ -812,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-6.1479999999999997</v>
+        <v>-3.8679999999999999</v>
       </c>
       <c r="C35">
         <v>0.40740999999999999</v>
@@ -823,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-6.5069999999999997</v>
+        <v>-4.0990000000000002</v>
       </c>
       <c r="C36">
         <v>0.41975000000000001</v>
@@ -834,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-6.8739999999999997</v>
+        <v>-4.3520000000000003</v>
       </c>
       <c r="C37">
         <v>0.43209999999999998</v>
@@ -845,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-7.2640000000000002</v>
+        <v>-4.6210000000000004</v>
       </c>
       <c r="C38">
         <v>0.44444</v>
@@ -856,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-7.6769999999999996</v>
+        <v>-4.907</v>
       </c>
       <c r="C39">
         <v>0.45678999999999997</v>
@@ -867,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-8.1189999999999998</v>
+        <v>-5.226</v>
       </c>
       <c r="C40">
         <v>0.46914</v>
@@ -878,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-8.5749999999999993</v>
+        <v>-5.5910000000000002</v>
       </c>
       <c r="C41">
         <v>0.48148000000000002</v>
@@ -889,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-9.0440000000000005</v>
+        <v>-6.0270000000000001</v>
       </c>
       <c r="C42">
         <v>0.49382999999999999</v>
@@ -900,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-9.5289999999999999</v>
+        <v>-6.5359999999999996</v>
       </c>
       <c r="C43">
         <v>0.50617000000000001</v>
@@ -911,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-10.02</v>
+        <v>-7.1109999999999998</v>
       </c>
       <c r="C44">
         <v>0.51851999999999998</v>
@@ -922,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-10.523999999999999</v>
+        <v>-7.7439999999999998</v>
       </c>
       <c r="C45">
         <v>0.53086</v>
@@ -933,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-11.071</v>
+        <v>-8.4420000000000002</v>
       </c>
       <c r="C46">
         <v>0.54320999999999997</v>
@@ -944,7 +945,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-11.708</v>
+        <v>-9.1959999999999997</v>
       </c>
       <c r="C47">
         <v>0.55556000000000005</v>
@@ -955,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-12.403</v>
+        <v>-10.006</v>
       </c>
       <c r="C48">
         <v>0.56789999999999996</v>
@@ -966,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-13.101000000000001</v>
+        <v>-10.891999999999999</v>
       </c>
       <c r="C49">
         <v>0.58025000000000004</v>
@@ -977,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-13.807</v>
+        <v>-11.815</v>
       </c>
       <c r="C50">
         <v>0.59258999999999995</v>
@@ -988,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-14.54</v>
+        <v>-12.763</v>
       </c>
       <c r="C51">
         <v>0.60494000000000003</v>
@@ -999,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-15.298999999999999</v>
+        <v>-13.715999999999999</v>
       </c>
       <c r="C52">
         <v>0.61728000000000005</v>
@@ -1010,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-16.113</v>
+        <v>-14.723000000000001</v>
       </c>
       <c r="C53">
         <v>0.62963000000000002</v>
@@ -1021,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-17.007999999999999</v>
+        <v>-15.754</v>
       </c>
       <c r="C54">
         <v>0.64198</v>
@@ -1032,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-18.048999999999999</v>
+        <v>-16.805</v>
       </c>
       <c r="C55">
         <v>0.65432000000000001</v>
@@ -1043,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-19.132999999999999</v>
+        <v>-17.905000000000001</v>
       </c>
       <c r="C56">
         <v>0.66666999999999998</v>
@@ -1054,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-20.3</v>
+        <v>-19.050999999999998</v>
       </c>
       <c r="C57">
         <v>0.67901</v>
@@ -1065,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-21.577000000000002</v>
+        <v>-20.303999999999998</v>
       </c>
       <c r="C58">
         <v>0.69135999999999997</v>
@@ -1076,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-23.088000000000001</v>
+        <v>-22.01</v>
       </c>
       <c r="C59">
         <v>0.70369999999999999</v>
@@ -1087,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-25.094000000000001</v>
+        <v>-24.341000000000001</v>
       </c>
       <c r="C60">
         <v>0.71604999999999996</v>
@@ -1098,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-27.638000000000002</v>
+        <v>-27.312000000000001</v>
       </c>
       <c r="C61">
         <v>0.72840000000000005</v>
@@ -1109,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-30.933</v>
+        <v>-31.154</v>
       </c>
       <c r="C62">
         <v>0.74073999999999995</v>
@@ -1120,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-35.563000000000002</v>
+        <v>-35.808999999999997</v>
       </c>
       <c r="C63">
         <v>0.75309000000000004</v>
@@ -1131,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-42.058</v>
+        <v>-41.786000000000001</v>
       </c>
       <c r="C64">
         <v>0.76543000000000005</v>
@@ -1142,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-51.09</v>
+        <v>-49.179000000000002</v>
       </c>
       <c r="C65">
         <v>0.77778000000000003</v>
@@ -1153,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-63.125</v>
+        <v>-58.231000000000002</v>
       </c>
       <c r="C66">
         <v>0.79012000000000004</v>
@@ -1164,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-78.141000000000005</v>
+        <v>-68.373000000000005</v>
       </c>
       <c r="C67">
         <v>0.80247000000000002</v>
@@ -1175,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-95.992999999999995</v>
+        <v>-80.019000000000005</v>
       </c>
       <c r="C68">
         <v>0.81481000000000003</v>
@@ -1186,7 +1187,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-116.491</v>
+        <v>-92.602000000000004</v>
       </c>
       <c r="C69">
         <v>0.82716000000000001</v>
@@ -1197,10 +1198,32 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-138.291</v>
+        <v>-105.56699999999999</v>
       </c>
       <c r="C70">
         <v>0.83950999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-119.241</v>
+      </c>
+      <c r="C71">
+        <v>0.85185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-133.244</v>
+      </c>
+      <c r="C72">
+        <v>0.86419999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1209,6 +1232,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945D95B-BC6D-4B37-A0BE-EBF1667CF75F}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-1.34</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-2.21</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-3.5390000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-5.734</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-11.166</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-19.105</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-49.228000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-143.27000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC32E6-FA2C-4F52-BEB6-ECE80E3F56CD}">
   <dimension ref="A1:C73"/>
   <sheetViews>
@@ -2026,7 +2185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D900DCE-0A2E-463F-93CB-27F02159151E}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2283,7 +2442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D5F48-4F61-4D0C-8F4B-10B85D7CC1D7}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2540,7 +2699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D868CF-29DB-4618-9EE8-B3D60C905B81}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2687,7 +2846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163D0521-112D-4C91-828F-188B0ECA5FA9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2944,7 +3103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE4E82F-2F13-4B3F-B913-0381D7A93385}">
   <dimension ref="A1:C13"/>
   <sheetViews>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7276F79A-DEDB-4D52-8043-043D6B6559B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114F8961-2B56-4097-8E8A-A09D1313D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
     <sheet name="V10_fein" sheetId="8" r:id="rId2"/>
-    <sheet name="V10_theta_max" sheetId="7" r:id="rId3"/>
+    <sheet name="V10_2x_drill" sheetId="7" r:id="rId3"/>
     <sheet name="jag_b500c" sheetId="3" r:id="rId4"/>
     <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId5"/>
     <sheet name="jag_b500a" sheetId="4" r:id="rId6"/>
@@ -1235,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945D95B-BC6D-4B37-A0BE-EBF1667CF75F}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1369,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC32E6-FA2C-4F52-BEB6-ECE80E3F56CD}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:C85"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,10 +1404,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.11700000000000001</v>
+        <v>-1.6559999999999999</v>
       </c>
       <c r="C3">
-        <v>1.2345999999999999E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,10 +1415,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.23499999999999999</v>
+        <v>-5.859</v>
       </c>
       <c r="C4">
-        <v>2.4691000000000001E-2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,10 +1426,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.35199999999999998</v>
+        <v>-6.6520000000000001</v>
       </c>
       <c r="C5">
-        <v>3.7037E-2</v>
+        <v>0.42777999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,10 +1437,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.47</v>
+        <v>-7.5049999999999999</v>
       </c>
       <c r="C6">
-        <v>4.9383000000000003E-2</v>
+        <v>0.45556000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,10 +1448,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.58699999999999997</v>
+        <v>-8.5169999999999995</v>
       </c>
       <c r="C7">
-        <v>6.1727999999999998E-2</v>
+        <v>0.48332999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,10 +1459,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.70499999999999996</v>
+        <v>-9.6150000000000002</v>
       </c>
       <c r="C8">
-        <v>7.4074000000000001E-2</v>
+        <v>0.51110999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1470,10 +1470,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.82199999999999995</v>
+        <v>-10.779</v>
       </c>
       <c r="C9">
-        <v>8.6419999999999997E-2</v>
+        <v>0.53888999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,10 +1481,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.93899999999999995</v>
+        <v>-12.22</v>
       </c>
       <c r="C10">
-        <v>9.8765000000000006E-2</v>
+        <v>0.56667000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1492,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.0609999999999999</v>
+        <v>-13.922000000000001</v>
       </c>
       <c r="C11">
-        <v>0.11111</v>
+        <v>0.59443999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,10 +1503,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.1990000000000001</v>
+        <v>-15.859</v>
       </c>
       <c r="C12">
-        <v>0.12346</v>
+        <v>0.62222</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1514,10 +1514,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.3420000000000001</v>
+        <v>-18.283999999999999</v>
       </c>
       <c r="C13">
-        <v>0.1358</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1525,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.4910000000000001</v>
+        <v>-21.222000000000001</v>
       </c>
       <c r="C14">
-        <v>0.14815</v>
+        <v>0.67778000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,10 +1536,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.6479999999999999</v>
+        <v>-25.780999999999999</v>
       </c>
       <c r="C15">
-        <v>0.16048999999999999</v>
+        <v>0.70555999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1547,10 +1547,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.8160000000000001</v>
+        <v>-33.970999999999997</v>
       </c>
       <c r="C16">
-        <v>0.17283999999999999</v>
+        <v>0.73333000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,10 +1558,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-2.02</v>
+        <v>-50.396000000000001</v>
       </c>
       <c r="C17">
-        <v>0.18518999999999999</v>
+        <v>0.76110999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,10 +1569,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-2.262</v>
+        <v>-82.588999999999999</v>
       </c>
       <c r="C18">
-        <v>0.19753000000000001</v>
+        <v>0.78888999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,604 +1580,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-2.5990000000000002</v>
+        <v>-128.74199999999999</v>
       </c>
       <c r="C19">
-        <v>0.20988000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>-3.0339999999999998</v>
-      </c>
-      <c r="C20">
-        <v>0.22222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>-3.5950000000000002</v>
-      </c>
-      <c r="C21">
-        <v>0.23457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>-4.2830000000000004</v>
-      </c>
-      <c r="C22">
-        <v>0.24690999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>-4.9710000000000001</v>
-      </c>
-      <c r="C23">
-        <v>0.25925999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>-5.742</v>
-      </c>
-      <c r="C24">
-        <v>0.27160000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>-6.4560000000000004</v>
-      </c>
-      <c r="C25">
-        <v>0.28394999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>-7.133</v>
-      </c>
-      <c r="C26">
-        <v>0.29630000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>-7.7960000000000003</v>
-      </c>
-      <c r="C27">
-        <v>0.30864000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>-8.4819999999999993</v>
-      </c>
-      <c r="C28">
-        <v>0.32099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>-9.2319999999999993</v>
-      </c>
-      <c r="C29">
-        <v>0.33333000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>-10.006</v>
-      </c>
-      <c r="C30">
-        <v>0.34567999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>-10.814</v>
-      </c>
-      <c r="C31">
-        <v>0.35802</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>-11.654999999999999</v>
-      </c>
-      <c r="C32">
-        <v>0.37036999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>-12.518000000000001</v>
-      </c>
-      <c r="C33">
-        <v>0.38272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>-13.39</v>
-      </c>
-      <c r="C34">
-        <v>0.39506000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>-14.307</v>
-      </c>
-      <c r="C35">
-        <v>0.40740999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>-15.255000000000001</v>
-      </c>
-      <c r="C36">
-        <v>0.41975000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>-16.428000000000001</v>
-      </c>
-      <c r="C37">
-        <v>0.43209999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>-17.753</v>
-      </c>
-      <c r="C38">
-        <v>0.44444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>-19.225000000000001</v>
-      </c>
-      <c r="C39">
-        <v>0.45678999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>-20.905999999999999</v>
-      </c>
-      <c r="C40">
-        <v>0.46914</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>-22.856999999999999</v>
-      </c>
-      <c r="C41">
-        <v>0.48148000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>-25.183</v>
-      </c>
-      <c r="C42">
-        <v>0.49382999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>-27.971</v>
-      </c>
-      <c r="C43">
-        <v>0.50617000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>-31.09</v>
-      </c>
-      <c r="C44">
-        <v>0.51851999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>-34.429000000000002</v>
-      </c>
-      <c r="C45">
-        <v>0.53086</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>-37.947000000000003</v>
-      </c>
-      <c r="C46">
-        <v>0.54320999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>-41.671999999999997</v>
-      </c>
-      <c r="C47">
-        <v>0.55556000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>-45.548999999999999</v>
-      </c>
-      <c r="C48">
-        <v>0.56789999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>-49.527000000000001</v>
-      </c>
-      <c r="C49">
-        <v>0.58025000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>-53.594000000000001</v>
-      </c>
-      <c r="C50">
-        <v>0.59258999999999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>-57.756999999999998</v>
-      </c>
-      <c r="C51">
-        <v>0.60494000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>-62.039000000000001</v>
-      </c>
-      <c r="C52">
-        <v>0.61728000000000005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>-66.37</v>
-      </c>
-      <c r="C53">
-        <v>0.62963000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>-70.745000000000005</v>
-      </c>
-      <c r="C54">
-        <v>0.64198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>-75.2</v>
-      </c>
-      <c r="C55">
-        <v>0.65432000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>-79.671999999999997</v>
-      </c>
-      <c r="C56">
-        <v>0.66666999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>-84.152000000000001</v>
-      </c>
-      <c r="C57">
-        <v>0.67901</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>-88.715999999999994</v>
-      </c>
-      <c r="C58">
-        <v>0.69135999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>-93.313999999999993</v>
-      </c>
-      <c r="C59">
-        <v>0.70369999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>-97.950999999999993</v>
-      </c>
-      <c r="C60">
-        <v>0.71604999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>-102.619</v>
-      </c>
-      <c r="C61">
-        <v>0.72840000000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>-107.295</v>
-      </c>
-      <c r="C62">
-        <v>0.74073999999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>-111.98</v>
-      </c>
-      <c r="C63">
-        <v>0.75309000000000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>-116.687</v>
-      </c>
-      <c r="C64">
-        <v>0.76543000000000005</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>-121.42</v>
-      </c>
-      <c r="C65">
-        <v>0.77778000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>-126.176</v>
-      </c>
-      <c r="C66">
-        <v>0.79012000000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>-130.96600000000001</v>
-      </c>
-      <c r="C67">
-        <v>0.80247000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>-135.762</v>
-      </c>
-      <c r="C68">
-        <v>0.81481000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>-140.56299999999999</v>
-      </c>
-      <c r="C69">
-        <v>0.82716000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>-145.375</v>
-      </c>
-      <c r="C70">
-        <v>0.83950999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>-150.20400000000001</v>
-      </c>
-      <c r="C71">
-        <v>0.85185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>-155.03399999999999</v>
-      </c>
-      <c r="C72">
-        <v>0.86419999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>-159.87</v>
-      </c>
-      <c r="C73">
-        <v>0.87653999999999999</v>
+        <v>0.81667000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114F8961-2B56-4097-8E8A-A09D1313D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F5FCB-589C-4AA1-A655-4B7D172478A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
     <sheet name="V10_fein" sheetId="8" r:id="rId2"/>
     <sheet name="V10_2x_drill" sheetId="7" r:id="rId3"/>
-    <sheet name="jag_b500c" sheetId="3" r:id="rId4"/>
-    <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId5"/>
-    <sheet name="jag_b500a" sheetId="4" r:id="rId6"/>
-    <sheet name="V10_drillweich" sheetId="5" r:id="rId7"/>
-    <sheet name="V10_axis" sheetId="6" r:id="rId8"/>
+    <sheet name="Tabelle1" sheetId="9" r:id="rId4"/>
+    <sheet name="jag_b500c" sheetId="3" r:id="rId5"/>
+    <sheet name="V10_ohne_zuggurt" sheetId="2" r:id="rId6"/>
+    <sheet name="jag_b500a" sheetId="4" r:id="rId7"/>
+    <sheet name="V10_drillweich" sheetId="5" r:id="rId8"/>
+    <sheet name="V10_axis" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -55,6 +56,27 @@
   </si>
   <si>
     <t>Lpa</t>
+  </si>
+  <si>
+    <t>Knot.</t>
+  </si>
+  <si>
+    <t>X [m]</t>
+  </si>
+  <si>
+    <t>Y [m]</t>
+  </si>
+  <si>
+    <t>Z [m]</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Rz  [kN]</t>
+  </si>
+  <si>
+    <t>Glob.</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EC32E6-FA2C-4F52-BEB6-ECE80E3F56CD}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1592,6 +1614,2260 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4DC573-49FC-436B-82CA-97FC363B5A4C}">
+  <dimension ref="A1:I97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>324</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2.6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>-30.010999999999999</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G97)</f>
+        <v>-1560.0049999999999</v>
+      </c>
+      <c r="I2">
+        <f>H2/25</f>
+        <v>-62.400199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>349</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2.4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>-30.010999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2.6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>-30.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>-30.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>660</v>
+      </c>
+      <c r="C6">
+        <v>2.6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>-30.009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>661</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>-30.009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2.4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>-30.009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>-30.007999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2.8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>-29.905999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>374</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>-29.905000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2.8</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>-29.905000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>-29.904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>83</v>
+      </c>
+      <c r="B14">
+        <v>659</v>
+      </c>
+      <c r="C14">
+        <v>2.8</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>-29.904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>86</v>
+      </c>
+      <c r="B15">
+        <v>662</v>
+      </c>
+      <c r="C15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>-29.904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>-29.902999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>2.8</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>-29.902999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>274</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>-29.686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>-29.684999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>399</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>-29.684999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21">
+        <v>658</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>-29.684999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>-29.684999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>87</v>
+      </c>
+      <c r="B23">
+        <v>663</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>-29.684000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>-29.684000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>-29.684000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>249</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>3.2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>-29.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3.2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>-29.318999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>657</v>
+      </c>
+      <c r="C28">
+        <v>3.2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>-29.318999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <v>664</v>
+      </c>
+      <c r="C29">
+        <v>1.8</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>-29.318000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1.8</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>-29.318000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>1.8</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>-29.318000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>424</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1.8</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>-29.318000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>3.2</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>-29.318000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>224</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>3.4</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>-28.68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>3.4</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>-28.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>656</v>
+      </c>
+      <c r="C36">
+        <v>3.4</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>-28.678999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>89</v>
+      </c>
+      <c r="B37">
+        <v>665</v>
+      </c>
+      <c r="C37">
+        <v>1.6</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>-28.678999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>1.6</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>-28.678999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1.6</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>-28.678999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>3.4</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>-28.678999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <v>449</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1.6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>-28.678999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>3.6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>-27.291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>1.4</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>-27.291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>79</v>
+      </c>
+      <c r="B44">
+        <v>655</v>
+      </c>
+      <c r="C44">
+        <v>3.6</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>-27.291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>199</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>3.6</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>-27.291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>666</v>
+      </c>
+      <c r="C46">
+        <v>1.4</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>-27.291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>3.6</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>-27.291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>31</v>
+      </c>
+      <c r="B48">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1.4</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>-27.291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>474</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>1.4</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>-27.29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>1.2</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>-23.405999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>3.8</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>-23.405000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>91</v>
+      </c>
+      <c r="B52">
+        <v>667</v>
+      </c>
+      <c r="C52">
+        <v>1.2</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>-23.405000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>3.8</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>-23.405000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <v>654</v>
+      </c>
+      <c r="C54">
+        <v>3.8</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>-23.404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1.2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>-23.404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>174</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>3.8</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>-23.404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>67</v>
+      </c>
+      <c r="B57">
+        <v>499</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>1.2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>-23.404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <v>44</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>-16.902999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>-16.902999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60">
+        <v>149</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>-16.902999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>-16.902999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>92</v>
+      </c>
+      <c r="B62">
+        <v>668</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>-16.902999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="B63">
+        <v>29</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>-16.902999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>77</v>
+      </c>
+      <c r="B64">
+        <v>653</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>-16.902999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>524</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>-16.902000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>45</v>
+      </c>
+      <c r="B66">
+        <v>45</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>4.2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>-12.391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>52</v>
+      </c>
+      <c r="B67">
+        <v>124</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>4.2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>-12.391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="B68">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>-12.391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>93</v>
+      </c>
+      <c r="B69">
+        <v>669</v>
+      </c>
+      <c r="C69">
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>-12.391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.8</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>-12.391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>652</v>
+      </c>
+      <c r="C71">
+        <v>4.2</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>-12.391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>4.2</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>-12.391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <v>549</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>0.8</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>-12.391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>46</v>
+      </c>
+      <c r="B74">
+        <v>46</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>-7.04</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>51</v>
+      </c>
+      <c r="B75">
+        <v>99</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>-7.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>94</v>
+      </c>
+      <c r="B76">
+        <v>670</v>
+      </c>
+      <c r="C76">
+        <v>0.6</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>-7.04</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>651</v>
+      </c>
+      <c r="C77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>-7.04</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>27</v>
+      </c>
+      <c r="B78">
+        <v>27</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0.6</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>-7.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>22</v>
+      </c>
+      <c r="C79">
+        <v>0.6</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>-7.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>70</v>
+      </c>
+      <c r="B80">
+        <v>574</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>0.6</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>-7.0389999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>-7.0389999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>47</v>
+      </c>
+      <c r="B82">
+        <v>47</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>50</v>
+      </c>
+      <c r="B83">
+        <v>74</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>95</v>
+      </c>
+      <c r="B84">
+        <v>671</v>
+      </c>
+      <c r="C84">
+        <v>0.4</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>74</v>
+      </c>
+      <c r="B85">
+        <v>650</v>
+      </c>
+      <c r="C85">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>26</v>
+      </c>
+      <c r="B86">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0.4</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>23</v>
+      </c>
+      <c r="B87">
+        <v>23</v>
+      </c>
+      <c r="C87">
+        <v>0.4</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>71</v>
+      </c>
+      <c r="B88">
+        <v>599</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>0.4</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>48</v>
+      </c>
+      <c r="B90">
+        <v>48</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>4.8</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <v>38.996000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>49</v>
+      </c>
+      <c r="B91">
+        <v>49</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>4.8</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>38.996000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>73</v>
+      </c>
+      <c r="B92">
+        <v>649</v>
+      </c>
+      <c r="C92">
+        <v>4.8</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>38.996000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>672</v>
+      </c>
+      <c r="C93">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>38.996000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>25</v>
+      </c>
+      <c r="B94">
+        <v>25</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0.2</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>38.996000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>24</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>0.2</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>38.996000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>72</v>
+      </c>
+      <c r="B96">
+        <v>624</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>0.2</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>38.996000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>4.8</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>38.996000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D900DCE-0A2E-463F-93CB-27F02159151E}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -1848,7 +4124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D5F48-4F61-4D0C-8F4B-10B85D7CC1D7}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2105,7 +4381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D868CF-29DB-4618-9EE8-B3D60C905B81}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2252,7 +4528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163D0521-112D-4C91-828F-188B0ECA5FA9}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -2509,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE4E82F-2F13-4B3F-B913-0381D7A93385}">
   <dimension ref="A1:C13"/>
   <sheetViews>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F5FCB-589C-4AA1-A655-4B7D172478A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92092A70-CC1E-4F48-BC31-22709A3B6107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -454,9 +454,9 @@
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>1.2345999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -500,7 +500,7 @@
         <v>2.4691000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -511,7 +511,7 @@
         <v>3.7037E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -522,7 +522,7 @@
         <v>4.9383000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -533,7 +533,7 @@
         <v>6.1727999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -544,7 +544,7 @@
         <v>7.4074000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -555,7 +555,7 @@
         <v>8.6419999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -566,7 +566,7 @@
         <v>9.8765000000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -577,7 +577,7 @@
         <v>0.11111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0.12346</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -599,7 +599,7 @@
         <v>0.1358</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0.14815</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -621,7 +621,7 @@
         <v>0.16048999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -632,7 +632,7 @@
         <v>0.17283999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -643,7 +643,7 @@
         <v>0.18518999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -654,7 +654,7 @@
         <v>0.19753000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0.20988000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0.22222</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0.23457</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -698,7 +698,7 @@
         <v>0.24690999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0.25925999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0.27160000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -731,7 +731,7 @@
         <v>0.28394999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -742,7 +742,7 @@
         <v>0.29630000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0.30864000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0.32099</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -775,7 +775,7 @@
         <v>0.33333000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0.34567999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -797,7 +797,7 @@
         <v>0.35802</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0.37036999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -819,7 +819,7 @@
         <v>0.38272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0.39506000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0.40740999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0.41975000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -863,7 +863,7 @@
         <v>0.43209999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.44444</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -885,7 +885,7 @@
         <v>0.45678999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0.46914</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -907,7 +907,7 @@
         <v>0.48148000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0.49382999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -929,7 +929,7 @@
         <v>0.50617000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0.51851999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -951,7 +951,7 @@
         <v>0.53086</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0.54320999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0.55556000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0.56789999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0.58025000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0.59258999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>0.60494000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>0.61728000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0.62963000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.64198</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0.65432000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0.66666999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0.67901</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0.69135999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0.70369999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0.71604999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0.72840000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0.74073999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0.75309000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0.76543000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>0.77778000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0.79012000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0.80247000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0.81481000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0.82716000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0.83950999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0.85185</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1261,9 +1261,9 @@
       <selection activeCell="E10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1397,9 +1397,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>0.42777999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0.45556000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>0.48332999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>0.51110999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0.53888999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0.56667000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0.59443999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0.62222</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0.67778000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.70555999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>0.73333000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0.76110999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>0.78888999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1617,13 +1617,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4DC573-49FC-436B-82CA-97FC363B5A4C}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>-62.400199999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>61</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>-30.010999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>37</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>-30.01</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>36</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>-30.01</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>84</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>-30.009</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>85</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>-30.009</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>-30.009</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>-30.007999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>59</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>-29.905999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>62</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>-29.905000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>38</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>-29.905000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>35</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>-29.904</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>83</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>-29.904</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>86</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>-29.904</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>-29.902999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>-29.902999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>58</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>-29.686</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>39</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>-29.684999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>63</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>-29.684999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>82</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>-29.684999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>34</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>-29.684999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>87</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>-29.684000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>-29.684000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>-29.684000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>57</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>-29.32</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>40</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>-29.318999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>81</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>-29.318999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>88</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>-29.318000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>-29.318000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>-29.318000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>64</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>-29.318000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>-29.318000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>56</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>-28.68</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>41</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>-28.68</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>80</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>-28.678999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>89</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>-28.678999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>17</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>-28.678999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>32</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>-28.678999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>-28.678999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>65</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>-28.678999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>-27.291</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>18</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>-27.291</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>79</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>-27.291</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>55</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>-27.291</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>90</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>-27.291</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>7</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>-27.291</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>31</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>-27.291</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>66</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>-27.29</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>19</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>-23.405999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>-23.405000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>91</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>-23.405000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>43</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>-23.405000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>78</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>-23.404</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>30</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>-23.404</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>-23.404</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>67</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>-23.404</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>44</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>-16.902999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>-16.902999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>53</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>-16.902999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>-16.902999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>92</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>-16.902999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>29</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>-16.902999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>77</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>-16.902999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>68</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>-16.902000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>45</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>-12.391</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>52</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>-12.391</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>21</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>-12.391</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>93</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>-12.391</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>28</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>-12.391</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>76</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>-12.391</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>-12.391</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>69</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>-12.391</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>46</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>51</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>94</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>27</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>22</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>70</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>-7.0389999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>-7.0389999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>47</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>50</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>95</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>74</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>26</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>23</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>71</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>48</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>38.996000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>49</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>38.996000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>73</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>38.996000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>96</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>38.996000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>38.996000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>24</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>38.996000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>72</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>38.996000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3875,9 +3875,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>0.43158000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0.46316000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0.49474000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0.52632000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0.55789</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0.58947000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>0.62104999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0.65263000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0.68420999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>0.71579000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>0.74736999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0.77895000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0.81052999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0.84211000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0.87368000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>0.90525999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>0.93684000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0.96841999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4132,9 +4132,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4383,15 +4383,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D868CF-29DB-4618-9EE8-B3D60C905B81}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4413,114 +4413,202 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-16.771000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-19.565999999999999</v>
+        <v>-5</v>
       </c>
       <c r="C4">
-        <v>0.46666999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.5238000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-22.361999999999998</v>
+        <v>-7.5</v>
       </c>
       <c r="C5">
-        <v>0.53332999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.14285999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-25.157</v>
+        <v>-10</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.19048000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-27.952000000000002</v>
+        <v>-12.5</v>
       </c>
       <c r="C7">
-        <v>0.66666999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.23809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-30.747</v>
+        <v>-15</v>
       </c>
       <c r="C8">
-        <v>0.73333000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.28571000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-33.542000000000002</v>
+        <v>-17.5</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.33333000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-36.496000000000002</v>
+        <v>-20</v>
       </c>
       <c r="C10">
-        <v>0.86667000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.38095000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-42.173999999999999</v>
+        <v>-22.5</v>
       </c>
       <c r="C11">
-        <v>0.93332999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.42857000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-47.853000000000002</v>
+        <v>-25</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.47619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-27.5</v>
+      </c>
+      <c r="C13">
+        <v>0.52381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-30</v>
+      </c>
+      <c r="C14">
+        <v>0.57142999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-32.5</v>
+      </c>
+      <c r="C15">
+        <v>0.61904999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-35</v>
+      </c>
+      <c r="C16">
+        <v>0.66666000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-37.5</v>
+      </c>
+      <c r="C17">
+        <v>0.70728999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-40</v>
+      </c>
+      <c r="C18">
+        <v>0.74026999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-42.5</v>
+      </c>
+      <c r="C19">
+        <v>0.75956999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-45</v>
+      </c>
+      <c r="C20">
+        <v>0.77886</v>
       </c>
     </row>
   </sheetData>
@@ -4536,9 +4624,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4549,7 +4637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4560,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4571,7 +4659,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4582,7 +4670,7 @@
         <v>0.43158000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4593,7 +4681,7 @@
         <v>0.46316000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4604,7 +4692,7 @@
         <v>0.49474000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4615,7 +4703,7 @@
         <v>0.52632000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4626,7 +4714,7 @@
         <v>0.55789</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4637,7 +4725,7 @@
         <v>0.58947000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4648,7 +4736,7 @@
         <v>0.62104999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4659,7 +4747,7 @@
         <v>0.65263000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4670,7 +4758,7 @@
         <v>0.68420999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4681,7 +4769,7 @@
         <v>0.71579000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4692,7 +4780,7 @@
         <v>0.74736999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4703,7 +4791,7 @@
         <v>0.77895000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4714,7 +4802,7 @@
         <v>0.81052999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4725,7 +4813,7 @@
         <v>0.84211000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4736,7 +4824,7 @@
         <v>0.87368000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4747,7 +4835,7 @@
         <v>0.90525999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4758,7 +4846,7 @@
         <v>0.93684000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4769,7 +4857,7 @@
         <v>0.96841999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4793,9 +4881,9 @@
       <selection activeCell="C6" sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4806,7 +4894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4817,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4828,7 +4916,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4839,7 +4927,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4850,7 +4938,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4861,7 +4949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4872,7 +4960,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4883,7 +4971,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4894,7 +4982,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4905,7 +4993,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4916,7 +5004,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4927,7 +5015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92092A70-CC1E-4F48-BC31-22709A3B6107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3105B762-D9D2-489C-9516-B7815F31D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -3869,10 +3869,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D900DCE-0A2E-463F-93CB-27F02159151E}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C54" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3904,10 +3904,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-19.914000000000001</v>
+        <v>-5.7789999999999999</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.10388</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3915,10 +3915,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-21.486000000000001</v>
+        <v>-11.558999999999999</v>
       </c>
       <c r="C4">
-        <v>0.43158000000000002</v>
+        <v>0.20776</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3926,10 +3926,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-23.058</v>
+        <v>-17.338000000000001</v>
       </c>
       <c r="C5">
-        <v>0.46316000000000002</v>
+        <v>0.31164999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3937,10 +3937,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-24.631</v>
+        <v>-23.117999999999999</v>
       </c>
       <c r="C6">
-        <v>0.49474000000000001</v>
+        <v>0.41553000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3948,10 +3948,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-26.202999999999999</v>
+        <v>-28.896999999999998</v>
       </c>
       <c r="C7">
-        <v>0.52632000000000001</v>
+        <v>0.51941000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3959,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-27.774999999999999</v>
+        <v>-34.825000000000003</v>
       </c>
       <c r="C8">
-        <v>0.55789</v>
+        <v>0.59670999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3970,10 +3970,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-29.347000000000001</v>
+        <v>-40.942999999999998</v>
       </c>
       <c r="C9">
-        <v>0.58947000000000005</v>
+        <v>0.64014000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3981,10 +3981,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-30.919</v>
+        <v>-46.991999999999997</v>
       </c>
       <c r="C10">
-        <v>0.62104999999999999</v>
+        <v>0.69579999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3992,10 +3992,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-33.881999999999998</v>
+        <v>-53.040999999999997</v>
       </c>
       <c r="C11">
-        <v>0.65263000000000004</v>
+        <v>0.75146999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4003,10 +4003,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-37.783999999999999</v>
+        <v>-59.125999999999998</v>
       </c>
       <c r="C12">
-        <v>0.68420999999999998</v>
+        <v>0.79966000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4014,10 +4014,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-41.518999999999998</v>
+        <v>-65.218000000000004</v>
       </c>
       <c r="C13">
-        <v>0.71579000000000004</v>
+        <v>0.84584000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4025,10 +4025,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-44.915999999999997</v>
+        <v>-70.906000000000006</v>
       </c>
       <c r="C14">
-        <v>0.74736999999999998</v>
+        <v>0.85540000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4036,10 +4036,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-48.313000000000002</v>
+        <v>-76.058999999999997</v>
       </c>
       <c r="C15">
-        <v>0.77895000000000003</v>
+        <v>0.85763999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4047,10 +4047,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-51.71</v>
+        <v>-81.486999999999995</v>
       </c>
       <c r="C16">
-        <v>0.81052999999999997</v>
+        <v>0.86026999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4058,10 +4058,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-55.106999999999999</v>
+        <v>-86.902000000000001</v>
       </c>
       <c r="C17">
-        <v>0.84211000000000003</v>
+        <v>0.86348999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4069,10 +4069,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-58.505000000000003</v>
+        <v>-91.965999999999994</v>
       </c>
       <c r="C18">
-        <v>0.87368000000000001</v>
+        <v>0.86492999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4080,10 +4080,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-61.902000000000001</v>
+        <v>-97.284999999999997</v>
       </c>
       <c r="C19">
-        <v>0.90525999999999995</v>
+        <v>0.87065000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4091,10 +4091,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-65.299000000000007</v>
+        <v>-102.548</v>
       </c>
       <c r="C20">
-        <v>0.93684000000000001</v>
+        <v>0.86846999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4102,10 +4102,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-158.87799999999999</v>
+        <v>-107.883</v>
       </c>
       <c r="C21">
-        <v>0.96841999999999995</v>
+        <v>0.87000999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4113,10 +4113,340 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-381.38499999999999</v>
+        <v>-113.48399999999999</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.87556999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-118.515</v>
+      </c>
+      <c r="C23">
+        <v>0.87738000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-123.82</v>
+      </c>
+      <c r="C24">
+        <v>0.87614999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-129.12299999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.87860000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-134.51599999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.88576999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-139.80600000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.88499000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-145.16200000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.88717999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-150.49600000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.88717999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-155.84899999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.88795999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-161.482</v>
+      </c>
+      <c r="C31">
+        <v>0.88773999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-167.024</v>
+      </c>
+      <c r="C32">
+        <v>0.88804000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-172.54</v>
+      </c>
+      <c r="C33">
+        <v>0.88865000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-177.87799999999999</v>
+      </c>
+      <c r="C34">
+        <v>0.89020999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-183.27199999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.89190000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-188.654</v>
+      </c>
+      <c r="C36">
+        <v>0.89353000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-194.37100000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.89253000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-200.27199999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.89253000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-205.97900000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.89327000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-211.38900000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.89515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-216.84200000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.89685999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-222.18299999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.89598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-227.64599999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.89815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-233.322</v>
+      </c>
+      <c r="C44">
+        <v>0.89819000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-239.52600000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.89819000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-245.56100000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.89854000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-251.03399999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.90007000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-256.54399999999998</v>
+      </c>
+      <c r="C48">
+        <v>0.90153000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-262.05399999999997</v>
+      </c>
+      <c r="C49">
+        <v>0.90298999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-267.56299999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.90444999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-273.74599999999998</v>
+      </c>
+      <c r="C51">
+        <v>0.90493000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-280.26799999999997</v>
+      </c>
+      <c r="C52">
+        <v>0.90493000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4385,7 +4715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D868CF-29DB-4618-9EE8-B3D60C905B81}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3105B762-D9D2-489C-9516-B7815F31D1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF3DC7-5ED2-45DC-8AB0-F4601D078B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="9" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="jag_b500a" sheetId="4" r:id="rId7"/>
     <sheet name="V10_drillweich" sheetId="5" r:id="rId8"/>
     <sheet name="V10_axis" sheetId="6" r:id="rId9"/>
+    <sheet name="quad_last_verform" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1253,6 +1254,153 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0D6B-B234-48C6-BE81-AB3AD1C1D289}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>0.43741000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>0.50070000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>0.50263999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-8</v>
+      </c>
+      <c r="C6">
+        <v>0.50485000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-10</v>
+      </c>
+      <c r="C7">
+        <v>0.50419999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-12</v>
+      </c>
+      <c r="C8">
+        <v>0.50441000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-14</v>
+      </c>
+      <c r="C9">
+        <v>0.50446000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-16</v>
+      </c>
+      <c r="C10">
+        <v>0.50314999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-18</v>
+      </c>
+      <c r="C11">
+        <v>0.50475000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-20</v>
+      </c>
+      <c r="C12">
+        <v>0.50480000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945D95B-BC6D-4B37-A0BE-EBF1667CF75F}">
   <dimension ref="A1:C11"/>
@@ -3871,7 +4019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D900DCE-0A2E-463F-93CB-27F02159151E}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C54" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF3DC7-5ED2-45DC-8AB0-F4601D078B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8000133-24CB-49FC-A602-4D6D10890483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="9" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -1258,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0D6B-B234-48C6-BE81-AB3AD1C1D289}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4017,10 +4017,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D900DCE-0A2E-463F-93CB-27F02159151E}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C54" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C80" sqref="A1:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4052,10 +4052,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.7789999999999999</v>
+        <v>-2.89</v>
       </c>
       <c r="C3">
-        <v>0.10388</v>
+        <v>5.1948000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-11.558999999999999</v>
+        <v>-5.78</v>
       </c>
       <c r="C4">
-        <v>0.20776</v>
+        <v>0.10390000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4074,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-17.338000000000001</v>
+        <v>-8.6690000000000005</v>
       </c>
       <c r="C5">
-        <v>0.31164999999999998</v>
+        <v>0.15584000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4085,10 +4085,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-23.117999999999999</v>
+        <v>-11.558999999999999</v>
       </c>
       <c r="C6">
-        <v>0.41553000000000001</v>
+        <v>0.20779</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4096,10 +4096,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-28.896999999999998</v>
+        <v>-14.449</v>
       </c>
       <c r="C7">
-        <v>0.51941000000000004</v>
+        <v>0.25974000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4107,10 +4107,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-34.825000000000003</v>
+        <v>-17.338999999999999</v>
       </c>
       <c r="C8">
-        <v>0.59670999999999996</v>
+        <v>0.31169000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4118,10 +4118,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-40.942999999999998</v>
+        <v>-20.228000000000002</v>
       </c>
       <c r="C9">
-        <v>0.64014000000000004</v>
+        <v>0.36364000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4129,10 +4129,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-46.991999999999997</v>
+        <v>-23.117999999999999</v>
       </c>
       <c r="C10">
-        <v>0.69579999999999997</v>
+        <v>0.41558</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4140,10 +4140,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-53.040999999999997</v>
+        <v>-26.007999999999999</v>
       </c>
       <c r="C11">
-        <v>0.75146999999999997</v>
+        <v>0.46753</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4151,10 +4151,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-59.125999999999998</v>
+        <v>-28.898</v>
       </c>
       <c r="C12">
-        <v>0.79966000000000004</v>
+        <v>0.51948000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4162,10 +4162,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-65.218000000000004</v>
+        <v>-31.786999999999999</v>
       </c>
       <c r="C13">
-        <v>0.84584000000000004</v>
+        <v>0.57142999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4173,10 +4173,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-70.906000000000006</v>
+        <v>-34.854999999999997</v>
       </c>
       <c r="C14">
-        <v>0.85540000000000005</v>
+        <v>0.59150000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4184,10 +4184,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-76.058999999999997</v>
+        <v>-37.887999999999998</v>
       </c>
       <c r="C15">
-        <v>0.85763999999999996</v>
+        <v>0.61795999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4195,10 +4195,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-81.486999999999995</v>
+        <v>-40.945</v>
       </c>
       <c r="C16">
-        <v>0.86026999999999998</v>
+        <v>0.63995999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4206,10 +4206,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-86.902000000000001</v>
+        <v>-43.968000000000004</v>
       </c>
       <c r="C17">
-        <v>0.86348999999999998</v>
+        <v>0.66805000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4217,10 +4217,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-91.965999999999994</v>
+        <v>-46.991999999999997</v>
       </c>
       <c r="C18">
-        <v>0.86492999999999998</v>
+        <v>0.69589000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4228,10 +4228,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-97.284999999999997</v>
+        <v>-50.017000000000003</v>
       </c>
       <c r="C19">
-        <v>0.87065000000000003</v>
+        <v>0.72372999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4239,10 +4239,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-102.548</v>
+        <v>-53.040999999999997</v>
       </c>
       <c r="C20">
-        <v>0.86846999999999996</v>
+        <v>0.75156000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4250,10 +4250,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-107.883</v>
+        <v>-56.079000000000001</v>
       </c>
       <c r="C21">
-        <v>0.87000999999999995</v>
+        <v>0.77673999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4261,10 +4261,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-113.48399999999999</v>
+        <v>-59.125999999999998</v>
       </c>
       <c r="C22">
-        <v>0.87556999999999996</v>
+        <v>0.79974999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4272,10 +4272,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-118.515</v>
+        <v>-62.173999999999999</v>
       </c>
       <c r="C23">
-        <v>0.87738000000000005</v>
+        <v>0.82277</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4283,10 +4283,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-123.82</v>
+        <v>-65.215999999999994</v>
       </c>
       <c r="C24">
-        <v>0.87614999999999998</v>
+        <v>0.84692999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4294,10 +4294,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-129.12299999999999</v>
+        <v>-67.930999999999997</v>
       </c>
       <c r="C25">
-        <v>0.87860000000000005</v>
+        <v>0.84784000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4305,10 +4305,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-134.51599999999999</v>
+        <v>-70.796000000000006</v>
       </c>
       <c r="C26">
-        <v>0.88576999999999995</v>
+        <v>0.86085999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4316,10 +4316,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-139.80600000000001</v>
+        <v>-73.430000000000007</v>
       </c>
       <c r="C27">
-        <v>0.88499000000000005</v>
+        <v>0.85846999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4327,10 +4327,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-145.16200000000001</v>
+        <v>-76.179000000000002</v>
       </c>
       <c r="C28">
-        <v>0.88717999999999997</v>
+        <v>0.85568</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4338,10 +4338,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-150.49600000000001</v>
+        <v>-79.319000000000003</v>
       </c>
       <c r="C29">
-        <v>0.88717999999999997</v>
+        <v>0.85834999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4349,10 +4349,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-155.84899999999999</v>
+        <v>-81.677999999999997</v>
       </c>
       <c r="C30">
-        <v>0.88795999999999997</v>
+        <v>0.85772000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4360,10 +4360,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-161.482</v>
+        <v>-84.055000000000007</v>
       </c>
       <c r="C31">
-        <v>0.88773999999999997</v>
+        <v>0.86146999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4371,10 +4371,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-167.024</v>
+        <v>-86.697000000000003</v>
       </c>
       <c r="C32">
-        <v>0.88804000000000005</v>
+        <v>0.86368</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4382,10 +4382,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-172.54</v>
+        <v>-89.403000000000006</v>
       </c>
       <c r="C33">
-        <v>0.88865000000000005</v>
+        <v>0.86458999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4393,10 +4393,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-177.87799999999999</v>
+        <v>-91.933000000000007</v>
       </c>
       <c r="C34">
-        <v>0.89020999999999995</v>
+        <v>0.86287999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4404,10 +4404,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-183.27199999999999</v>
+        <v>-94.61</v>
       </c>
       <c r="C35">
-        <v>0.89190000000000003</v>
+        <v>0.86875999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4415,10 +4415,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-188.654</v>
+        <v>-97.302000000000007</v>
       </c>
       <c r="C36">
-        <v>0.89353000000000005</v>
+        <v>0.86758000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4426,10 +4426,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-194.37100000000001</v>
+        <v>-99.924999999999997</v>
       </c>
       <c r="C37">
-        <v>0.89253000000000005</v>
+        <v>0.87144999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4437,10 +4437,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-200.27199999999999</v>
+        <v>-102.62</v>
       </c>
       <c r="C38">
-        <v>0.89253000000000005</v>
+        <v>0.87321000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4448,10 +4448,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-205.97900000000001</v>
+        <v>-105.249</v>
       </c>
       <c r="C39">
-        <v>0.89327000000000001</v>
+        <v>0.87153000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4459,10 +4459,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-211.38900000000001</v>
+        <v>-107.899</v>
       </c>
       <c r="C40">
-        <v>0.89515</v>
+        <v>0.87114999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4470,10 +4470,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-216.84200000000001</v>
+        <v>-110.55</v>
       </c>
       <c r="C41">
-        <v>0.89685999999999999</v>
+        <v>0.87414000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4481,10 +4481,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-222.18299999999999</v>
+        <v>-113.241</v>
       </c>
       <c r="C42">
-        <v>0.89598</v>
+        <v>0.87388999999999994</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4492,10 +4492,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-227.64599999999999</v>
+        <v>-115.88500000000001</v>
       </c>
       <c r="C43">
-        <v>0.89815</v>
+        <v>0.87844</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4503,10 +4503,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-233.322</v>
+        <v>-118.54300000000001</v>
       </c>
       <c r="C44">
-        <v>0.89819000000000004</v>
+        <v>0.87887999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4514,10 +4514,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-239.52600000000001</v>
+        <v>-121.175</v>
       </c>
       <c r="C45">
-        <v>0.89819000000000004</v>
+        <v>0.87975000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4525,10 +4525,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-245.56100000000001</v>
+        <v>-123.812</v>
       </c>
       <c r="C46">
-        <v>0.89854000000000001</v>
+        <v>0.87948999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4536,10 +4536,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-251.03399999999999</v>
+        <v>-126.501</v>
       </c>
       <c r="C47">
-        <v>0.90007000000000004</v>
+        <v>0.88085999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -4547,10 +4547,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-256.54399999999998</v>
+        <v>-129.30099999999999</v>
       </c>
       <c r="C48">
-        <v>0.90153000000000005</v>
+        <v>0.87910999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4558,10 +4558,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-262.05399999999997</v>
+        <v>-131.82300000000001</v>
       </c>
       <c r="C49">
-        <v>0.90298999999999996</v>
+        <v>0.87936000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -4569,10 +4569,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-267.56299999999999</v>
+        <v>-134.44999999999999</v>
       </c>
       <c r="C50">
-        <v>0.90444999999999998</v>
+        <v>0.88476999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4580,10 +4580,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-273.74599999999998</v>
+        <v>-137.12299999999999</v>
       </c>
       <c r="C51">
-        <v>0.90493000000000001</v>
+        <v>0.88417000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -4591,10 +4591,560 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-280.26799999999997</v>
+        <v>-139.79499999999999</v>
       </c>
       <c r="C52">
-        <v>0.90493000000000001</v>
+        <v>0.88517000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>-142.48400000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.88673000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>-145.16399999999999</v>
+      </c>
+      <c r="C54">
+        <v>0.88741999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-147.83099999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.88741999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>-150.49700000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.88743000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>-153.16399999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.88743000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-155.85300000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.88812000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>-158.65799999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.88817999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>-161.464</v>
+      </c>
+      <c r="C60">
+        <v>0.88817999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-164.27199999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.88807999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>-167.07599999999999</v>
+      </c>
+      <c r="C62">
+        <v>0.88819000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>-169.92599999999999</v>
+      </c>
+      <c r="C63">
+        <v>0.88370000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>-172.52500000000001</v>
+      </c>
+      <c r="C64">
+        <v>0.88985999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>-175.22900000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.89088999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>-177.93199999999999</v>
+      </c>
+      <c r="C66">
+        <v>0.89193999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>-180.60900000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.89224000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>-183.27600000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.89224000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>-185.94300000000001</v>
+      </c>
+      <c r="C69">
+        <v>0.89224999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>-188.68799999999999</v>
+      </c>
+      <c r="C70">
+        <v>0.88868000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-192.03899999999999</v>
+      </c>
+      <c r="C71">
+        <v>0.88697000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-194.61</v>
+      </c>
+      <c r="C72">
+        <v>0.88890999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>-197.50899999999999</v>
+      </c>
+      <c r="C73">
+        <v>0.88936999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>-200.52799999999999</v>
+      </c>
+      <c r="C74">
+        <v>0.89153000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>-203.292</v>
+      </c>
+      <c r="C75">
+        <v>0.89154999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>-205.97200000000001</v>
+      </c>
+      <c r="C76">
+        <v>0.89354999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>-208.684</v>
+      </c>
+      <c r="C77">
+        <v>0.89449999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>-211.393</v>
+      </c>
+      <c r="C78">
+        <v>0.89544999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>-214.119</v>
+      </c>
+      <c r="C79">
+        <v>0.89631000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>-216.845</v>
+      </c>
+      <c r="C80">
+        <v>0.89717000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>-219.572</v>
+      </c>
+      <c r="C81">
+        <v>0.89803999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>-222.518</v>
+      </c>
+      <c r="C82">
+        <v>0.89512000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>-225.654</v>
+      </c>
+      <c r="C83">
+        <v>0.89690999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>-228.88</v>
+      </c>
+      <c r="C84">
+        <v>0.89863000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>-232.00200000000001</v>
+      </c>
+      <c r="C85">
+        <v>0.89424999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>-234.90199999999999</v>
+      </c>
+      <c r="C86">
+        <v>0.89571999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>-237.417</v>
+      </c>
+      <c r="C87">
+        <v>0.89786999999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>-240.25700000000001</v>
+      </c>
+      <c r="C88">
+        <v>0.89668000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>-242.83500000000001</v>
+      </c>
+      <c r="C89">
+        <v>0.89746999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>-245.52199999999999</v>
+      </c>
+      <c r="C90">
+        <v>0.89888000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>-248.286</v>
+      </c>
+      <c r="C91">
+        <v>0.89970000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>-251.041</v>
+      </c>
+      <c r="C92">
+        <v>0.90042999999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>-253.79599999999999</v>
+      </c>
+      <c r="C93">
+        <v>0.90117000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>-256.55099999999999</v>
+      </c>
+      <c r="C94">
+        <v>0.90190000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>-259.30599999999998</v>
+      </c>
+      <c r="C95">
+        <v>0.90263000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>-262.06099999999998</v>
+      </c>
+      <c r="C96">
+        <v>0.90336000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>-264.81599999999997</v>
+      </c>
+      <c r="C97">
+        <v>0.90408999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>-267.57100000000003</v>
+      </c>
+      <c r="C98">
+        <v>0.90483000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>-270.536</v>
+      </c>
+      <c r="C99">
+        <v>0.90525</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>-273.798</v>
+      </c>
+      <c r="C100">
+        <v>0.90525999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>-277.13099999999997</v>
+      </c>
+      <c r="C101">
+        <v>0.90203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>-280.322</v>
+      </c>
+      <c r="C102">
+        <v>0.90525999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8000133-24CB-49FC-A602-4D6D10890483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97602B4-67CC-4819-BD73-0901F2AC4FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
@@ -4019,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D900DCE-0A2E-463F-93CB-27F02159151E}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C80" sqref="A1:C102"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4055,7 +4055,7 @@
         <v>-2.89</v>
       </c>
       <c r="C3">
-        <v>5.1948000000000001E-2</v>
+        <v>3.6364E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4066,7 +4066,7 @@
         <v>-5.78</v>
       </c>
       <c r="C4">
-        <v>0.10390000000000001</v>
+        <v>7.2727E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4077,7 +4077,7 @@
         <v>-8.6690000000000005</v>
       </c>
       <c r="C5">
-        <v>0.15584000000000001</v>
+        <v>0.10909000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
         <v>-11.558999999999999</v>
       </c>
       <c r="C6">
-        <v>0.20779</v>
+        <v>0.14545</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4099,7 +4099,7 @@
         <v>-14.449</v>
       </c>
       <c r="C7">
-        <v>0.25974000000000003</v>
+        <v>0.18182000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4110,7 +4110,7 @@
         <v>-17.338999999999999</v>
       </c>
       <c r="C8">
-        <v>0.31169000000000002</v>
+        <v>0.21818000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4121,7 +4121,7 @@
         <v>-20.228000000000002</v>
       </c>
       <c r="C9">
-        <v>0.36364000000000002</v>
+        <v>0.25453999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
         <v>-23.117999999999999</v>
       </c>
       <c r="C10">
-        <v>0.41558</v>
+        <v>0.29091</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4143,7 +4143,7 @@
         <v>-26.007999999999999</v>
       </c>
       <c r="C11">
-        <v>0.46753</v>
+        <v>0.32727000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4154,7 +4154,7 @@
         <v>-28.898</v>
       </c>
       <c r="C12">
-        <v>0.51948000000000005</v>
+        <v>0.36364000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4165,7 +4165,7 @@
         <v>-31.786999999999999</v>
       </c>
       <c r="C13">
-        <v>0.57142999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4176,7 +4176,7 @@
         <v>-34.854999999999997</v>
       </c>
       <c r="C14">
-        <v>0.59150000000000003</v>
+        <v>0.41404999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4187,7 +4187,7 @@
         <v>-37.887999999999998</v>
       </c>
       <c r="C15">
-        <v>0.61795999999999995</v>
+        <v>0.43257000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
         <v>-40.945</v>
       </c>
       <c r="C16">
-        <v>0.63995999999999997</v>
+        <v>0.44796999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4209,7 +4209,7 @@
         <v>-43.968000000000004</v>
       </c>
       <c r="C17">
-        <v>0.66805000000000003</v>
+        <v>0.46764</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4220,7 +4220,7 @@
         <v>-46.991999999999997</v>
       </c>
       <c r="C18">
-        <v>0.69589000000000001</v>
+        <v>0.48712</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4231,7 +4231,7 @@
         <v>-50.017000000000003</v>
       </c>
       <c r="C19">
-        <v>0.72372999999999998</v>
+        <v>0.50661</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4242,7 +4242,7 @@
         <v>-53.040999999999997</v>
       </c>
       <c r="C20">
-        <v>0.75156000000000001</v>
+        <v>0.52608999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4253,7 +4253,7 @@
         <v>-56.079000000000001</v>
       </c>
       <c r="C21">
-        <v>0.77673999999999999</v>
+        <v>0.54371999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4264,7 +4264,7 @@
         <v>-59.125999999999998</v>
       </c>
       <c r="C22">
-        <v>0.79974999999999996</v>
+        <v>0.55983000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4275,7 +4275,7 @@
         <v>-62.173999999999999</v>
       </c>
       <c r="C23">
-        <v>0.82277</v>
+        <v>0.57594000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4283,10 +4283,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-65.215999999999994</v>
+        <v>-65.221000000000004</v>
       </c>
       <c r="C24">
-        <v>0.84692999999999996</v>
+        <v>0.59204999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4294,10 +4294,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-67.930999999999997</v>
+        <v>-67.659000000000006</v>
       </c>
       <c r="C25">
-        <v>0.84784000000000004</v>
+        <v>0.58140999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4305,10 +4305,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-70.796000000000006</v>
+        <v>-70.652000000000001</v>
       </c>
       <c r="C26">
-        <v>0.86085999999999996</v>
+        <v>0.59733999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4316,10 +4316,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-73.430000000000007</v>
+        <v>-73.272999999999996</v>
       </c>
       <c r="C27">
-        <v>0.85846999999999996</v>
+        <v>0.59589999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4327,10 +4327,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-76.179000000000002</v>
+        <v>-76.040999999999997</v>
       </c>
       <c r="C28">
-        <v>0.85568</v>
+        <v>0.59994000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4338,10 +4338,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-79.319000000000003</v>
+        <v>-78.733999999999995</v>
       </c>
       <c r="C29">
-        <v>0.85834999999999995</v>
+        <v>0.60350999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4349,10 +4349,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-81.677999999999997</v>
+        <v>-81.403000000000006</v>
       </c>
       <c r="C30">
-        <v>0.85772000000000004</v>
+        <v>0.60343000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4360,10 +4360,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-84.055000000000007</v>
+        <v>-84.066000000000003</v>
       </c>
       <c r="C31">
-        <v>0.86146999999999996</v>
+        <v>0.60333999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4371,10 +4371,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-86.697000000000003</v>
+        <v>-86.712000000000003</v>
       </c>
       <c r="C32">
-        <v>0.86368</v>
+        <v>0.60451999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4382,10 +4382,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-89.403000000000006</v>
+        <v>-89.292000000000002</v>
       </c>
       <c r="C33">
-        <v>0.86458999999999997</v>
+        <v>0.60528999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4393,10 +4393,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-91.933000000000007</v>
+        <v>-91.852999999999994</v>
       </c>
       <c r="C34">
-        <v>0.86287999999999998</v>
+        <v>0.60075999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4404,10 +4404,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-94.61</v>
+        <v>-94.652000000000001</v>
       </c>
       <c r="C35">
-        <v>0.86875999999999998</v>
+        <v>0.60675000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4415,10 +4415,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-97.302000000000007</v>
+        <v>-97.174999999999997</v>
       </c>
       <c r="C36">
-        <v>0.86758000000000002</v>
+        <v>0.60326000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4426,10 +4426,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-99.924999999999997</v>
+        <v>-99.930999999999997</v>
       </c>
       <c r="C37">
-        <v>0.87144999999999995</v>
+        <v>0.60946</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4437,10 +4437,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-102.62</v>
+        <v>-102.508</v>
       </c>
       <c r="C38">
-        <v>0.87321000000000004</v>
+        <v>0.60826999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4448,10 +4448,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-105.249</v>
+        <v>-105.22199999999999</v>
       </c>
       <c r="C39">
-        <v>0.87153000000000003</v>
+        <v>0.61107999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4459,10 +4459,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-107.899</v>
+        <v>-107.914</v>
       </c>
       <c r="C40">
-        <v>0.87114999999999998</v>
+        <v>0.60880999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4470,10 +4470,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-110.55</v>
+        <v>-110.548</v>
       </c>
       <c r="C41">
-        <v>0.87414000000000003</v>
+        <v>0.61002999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4481,10 +4481,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-113.241</v>
+        <v>-113.21599999999999</v>
       </c>
       <c r="C42">
-        <v>0.87388999999999994</v>
+        <v>0.61199000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4492,10 +4492,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-115.88500000000001</v>
+        <v>-115.851</v>
       </c>
       <c r="C43">
-        <v>0.87844</v>
+        <v>0.61229</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4503,10 +4503,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-118.54300000000001</v>
+        <v>-118.54</v>
       </c>
       <c r="C44">
-        <v>0.87887999999999999</v>
+        <v>0.61226000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4514,10 +4514,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-121.175</v>
+        <v>-121.282</v>
       </c>
       <c r="C45">
-        <v>0.87975000000000003</v>
+        <v>0.61389000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4525,10 +4525,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-123.812</v>
+        <v>-123.872</v>
       </c>
       <c r="C46">
-        <v>0.87948999999999999</v>
+        <v>0.61775999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4536,10 +4536,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-126.501</v>
+        <v>-126.479</v>
       </c>
       <c r="C47">
-        <v>0.88085999999999998</v>
+        <v>0.61431999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -4547,10 +4547,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-129.30099999999999</v>
+        <v>-129.15600000000001</v>
       </c>
       <c r="C48">
-        <v>0.87910999999999995</v>
+        <v>0.61734</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4558,10 +4558,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-131.82300000000001</v>
+        <v>-131.76400000000001</v>
       </c>
       <c r="C49">
-        <v>0.87936000000000003</v>
+        <v>0.61653999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -4569,10 +4569,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-134.44999999999999</v>
+        <v>-134.471</v>
       </c>
       <c r="C50">
-        <v>0.88476999999999995</v>
+        <v>0.61860000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4580,10 +4580,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-137.12299999999999</v>
+        <v>-137.07499999999999</v>
       </c>
       <c r="C51">
-        <v>0.88417000000000001</v>
+        <v>0.61856999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -4591,10 +4591,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-139.79499999999999</v>
+        <v>-139.72800000000001</v>
       </c>
       <c r="C52">
-        <v>0.88517000000000001</v>
+        <v>0.61924999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -4602,10 +4602,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-142.48400000000001</v>
+        <v>-142.40600000000001</v>
       </c>
       <c r="C53">
-        <v>0.88673000000000002</v>
+        <v>0.62122999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -4616,7 +4616,7 @@
         <v>-145.16399999999999</v>
       </c>
       <c r="C54">
-        <v>0.88741999999999999</v>
+        <v>0.62117999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -4627,7 +4627,7 @@
         <v>-147.83099999999999</v>
       </c>
       <c r="C55">
-        <v>0.88741999999999999</v>
+        <v>0.62119999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -4638,7 +4638,7 @@
         <v>-150.49700000000001</v>
       </c>
       <c r="C56">
-        <v>0.88743000000000005</v>
+        <v>0.62119999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -4646,10 +4646,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-153.16399999999999</v>
+        <v>-153.23500000000001</v>
       </c>
       <c r="C57">
-        <v>0.88743000000000005</v>
+        <v>0.61670999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -4660,7 +4660,7 @@
         <v>-155.85300000000001</v>
       </c>
       <c r="C58">
-        <v>0.88812000000000002</v>
+        <v>0.62172000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -4668,10 +4668,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-158.65799999999999</v>
+        <v>-158.65899999999999</v>
       </c>
       <c r="C59">
-        <v>0.88817999999999997</v>
+        <v>0.62172000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -4682,7 +4682,7 @@
         <v>-161.464</v>
       </c>
       <c r="C60">
-        <v>0.88817999999999997</v>
+        <v>0.62173</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -4690,10 +4690,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-164.27199999999999</v>
+        <v>-164.26900000000001</v>
       </c>
       <c r="C61">
-        <v>0.88807999999999998</v>
+        <v>0.62173</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -4701,10 +4701,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-167.07599999999999</v>
+        <v>-167.07400000000001</v>
       </c>
       <c r="C62">
-        <v>0.88819000000000004</v>
+        <v>0.62173</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -4712,10 +4712,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-169.92599999999999</v>
+        <v>-169.88900000000001</v>
       </c>
       <c r="C63">
-        <v>0.88370000000000004</v>
+        <v>0.62348999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -4723,10 +4723,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-172.52500000000001</v>
+        <v>-172.52600000000001</v>
       </c>
       <c r="C64">
-        <v>0.88985999999999998</v>
+        <v>0.62287999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -4737,7 +4737,7 @@
         <v>-175.22900000000001</v>
       </c>
       <c r="C65">
-        <v>0.89088999999999996</v>
+        <v>0.62361999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -4748,7 +4748,7 @@
         <v>-177.93199999999999</v>
       </c>
       <c r="C66">
-        <v>0.89193999999999996</v>
+        <v>0.62436000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -4759,7 +4759,7 @@
         <v>-180.60900000000001</v>
       </c>
       <c r="C67">
-        <v>0.89224000000000003</v>
+        <v>0.62456999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -4767,10 +4767,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-183.27600000000001</v>
+        <v>-183.32499999999999</v>
       </c>
       <c r="C68">
-        <v>0.89224000000000003</v>
+        <v>0.62182999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -4778,10 +4778,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-185.94300000000001</v>
+        <v>-185.99799999999999</v>
       </c>
       <c r="C69">
-        <v>0.89224999999999999</v>
+        <v>0.62326999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -4789,10 +4789,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-188.68799999999999</v>
+        <v>-188.63300000000001</v>
       </c>
       <c r="C70">
-        <v>0.88868000000000003</v>
+        <v>0.62383999999999995</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -4800,10 +4800,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-192.03899999999999</v>
+        <v>-191.28100000000001</v>
       </c>
       <c r="C71">
-        <v>0.88697000000000004</v>
+        <v>0.62458000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -4811,10 +4811,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-194.61</v>
+        <v>-194.55199999999999</v>
       </c>
       <c r="C72">
-        <v>0.88890999999999998</v>
+        <v>0.62441000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -4822,10 +4822,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-197.50899999999999</v>
+        <v>-197.21700000000001</v>
       </c>
       <c r="C73">
-        <v>0.88936999999999999</v>
+        <v>0.62468000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -4833,10 +4833,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-200.52799999999999</v>
+        <v>-200.28399999999999</v>
       </c>
       <c r="C74">
-        <v>0.89153000000000004</v>
+        <v>0.62495000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -4844,10 +4844,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-203.292</v>
+        <v>-203.22900000000001</v>
       </c>
       <c r="C75">
-        <v>0.89154999999999995</v>
+        <v>0.62495000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -4855,10 +4855,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-205.97200000000001</v>
+        <v>-205.941</v>
       </c>
       <c r="C76">
-        <v>0.89354999999999996</v>
+        <v>0.62561</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -4866,10 +4866,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-208.684</v>
+        <v>-208.667</v>
       </c>
       <c r="C77">
-        <v>0.89449999999999996</v>
+        <v>0.62621000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -4880,7 +4880,7 @@
         <v>-211.393</v>
       </c>
       <c r="C78">
-        <v>0.89544999999999997</v>
+        <v>0.62682000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -4891,7 +4891,7 @@
         <v>-214.119</v>
       </c>
       <c r="C79">
-        <v>0.89631000000000005</v>
+        <v>0.62741999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -4902,7 +4902,7 @@
         <v>-216.845</v>
       </c>
       <c r="C80">
-        <v>0.89717000000000002</v>
+        <v>0.62802000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -4913,7 +4913,7 @@
         <v>-219.572</v>
       </c>
       <c r="C81">
-        <v>0.89803999999999995</v>
+        <v>0.62861999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -4921,10 +4921,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-222.518</v>
+        <v>-222.33699999999999</v>
       </c>
       <c r="C82">
-        <v>0.89512000000000003</v>
+        <v>0.62890999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -4932,10 +4932,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-225.654</v>
+        <v>-225.59100000000001</v>
       </c>
       <c r="C83">
-        <v>0.89690999999999999</v>
+        <v>0.62892000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -4943,10 +4943,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-228.88</v>
+        <v>-228.69399999999999</v>
       </c>
       <c r="C84">
-        <v>0.89863000000000004</v>
+        <v>0.62892999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -4954,10 +4954,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-232.00200000000001</v>
+        <v>-231.74299999999999</v>
       </c>
       <c r="C85">
-        <v>0.89424999999999999</v>
+        <v>0.62892999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -4965,10 +4965,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-234.90199999999999</v>
+        <v>-234.898</v>
       </c>
       <c r="C86">
-        <v>0.89571999999999996</v>
+        <v>0.62892999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -4976,10 +4976,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-237.417</v>
+        <v>-237.51900000000001</v>
       </c>
       <c r="C87">
-        <v>0.89786999999999995</v>
+        <v>0.62568000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -4987,10 +4987,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-240.25700000000001</v>
+        <v>-240.649</v>
       </c>
       <c r="C88">
-        <v>0.89668000000000003</v>
+        <v>0.62624000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -4998,10 +4998,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-242.83500000000001</v>
+        <v>-242.90199999999999</v>
       </c>
       <c r="C89">
-        <v>0.89746999999999999</v>
+        <v>0.62812999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -5009,10 +5009,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-245.52199999999999</v>
+        <v>-245.536</v>
       </c>
       <c r="C90">
-        <v>0.89888000000000001</v>
+        <v>0.62914999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -5023,7 +5023,7 @@
         <v>-248.286</v>
       </c>
       <c r="C91">
-        <v>0.89970000000000006</v>
+        <v>0.62978999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -5034,7 +5034,7 @@
         <v>-251.041</v>
       </c>
       <c r="C92">
-        <v>0.90042999999999995</v>
+        <v>0.63029999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -5045,7 +5045,7 @@
         <v>-253.79599999999999</v>
       </c>
       <c r="C93">
-        <v>0.90117000000000003</v>
+        <v>0.63082000000000005</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -5056,7 +5056,7 @@
         <v>-256.55099999999999</v>
       </c>
       <c r="C94">
-        <v>0.90190000000000003</v>
+        <v>0.63132999999999995</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -5067,7 +5067,7 @@
         <v>-259.30599999999998</v>
       </c>
       <c r="C95">
-        <v>0.90263000000000004</v>
+        <v>0.63183999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -5078,7 +5078,7 @@
         <v>-262.06099999999998</v>
       </c>
       <c r="C96">
-        <v>0.90336000000000005</v>
+        <v>0.63234999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -5089,7 +5089,7 @@
         <v>-264.81599999999997</v>
       </c>
       <c r="C97">
-        <v>0.90408999999999995</v>
+        <v>0.63287000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -5100,7 +5100,7 @@
         <v>-267.57100000000003</v>
       </c>
       <c r="C98">
-        <v>0.90483000000000002</v>
+        <v>0.63338000000000005</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -5111,7 +5111,7 @@
         <v>-270.536</v>
       </c>
       <c r="C99">
-        <v>0.90525</v>
+        <v>0.63368000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -5122,7 +5122,7 @@
         <v>-273.798</v>
       </c>
       <c r="C100">
-        <v>0.90525999999999995</v>
+        <v>0.63368000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -5130,10 +5130,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-277.13099999999997</v>
+        <v>-277.14299999999997</v>
       </c>
       <c r="C101">
-        <v>0.90203</v>
+        <v>0.63378999999999996</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -5141,10 +5141,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-280.322</v>
+        <v>-280.33100000000002</v>
       </c>
       <c r="C102">
-        <v>0.90525999999999995</v>
+        <v>0.63370000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -5411,10 +5411,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D868CF-29DB-4618-9EE8-B3D60C905B81}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5446,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="C3">
-        <v>4.7619000000000002E-2</v>
+        <v>6.3492000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5457,10 +5457,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>9.5238000000000003E-2</v>
+        <v>1.2697999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5468,10 +5468,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-7.5</v>
+        <v>-1.5</v>
       </c>
       <c r="C5">
-        <v>0.14285999999999999</v>
+        <v>1.9047999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5479,10 +5479,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="C6">
-        <v>0.19048000000000001</v>
+        <v>2.5396999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5490,10 +5490,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-12.5</v>
+        <v>-2.5</v>
       </c>
       <c r="C7">
-        <v>0.23809</v>
+        <v>3.1746000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5501,10 +5501,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="C8">
-        <v>0.28571000000000002</v>
+        <v>3.8094999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5512,10 +5512,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-17.5</v>
+        <v>-3.5</v>
       </c>
       <c r="C9">
-        <v>0.33333000000000002</v>
+        <v>4.4443999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5523,10 +5523,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="C10">
-        <v>0.38095000000000001</v>
+        <v>5.0792999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5534,10 +5534,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-22.5</v>
+        <v>-4.5</v>
       </c>
       <c r="C11">
-        <v>0.42857000000000001</v>
+        <v>5.7142999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5545,10 +5545,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="C12">
-        <v>0.47619</v>
+        <v>6.3492000000000007E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5556,10 +5556,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-27.5</v>
+        <v>-5.5</v>
       </c>
       <c r="C13">
-        <v>0.52381</v>
+        <v>6.9841E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5567,10 +5567,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-30</v>
+        <v>-6</v>
       </c>
       <c r="C14">
-        <v>0.57142999999999999</v>
+        <v>7.6189999999999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5578,10 +5578,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-32.5</v>
+        <v>-6.5</v>
       </c>
       <c r="C15">
-        <v>0.61904999999999999</v>
+        <v>8.2539000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5589,10 +5589,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-35</v>
+        <v>-7</v>
       </c>
       <c r="C16">
-        <v>0.66666000000000003</v>
+        <v>8.8888999999999996E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5600,10 +5600,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-37.5</v>
+        <v>-7.5</v>
       </c>
       <c r="C17">
-        <v>0.70728999999999997</v>
+        <v>9.5238000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5611,10 +5611,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-40</v>
+        <v>-8</v>
       </c>
       <c r="C18">
-        <v>0.74026999999999998</v>
+        <v>0.10159</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5622,10 +5622,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-42.5</v>
+        <v>-8.5</v>
       </c>
       <c r="C19">
-        <v>0.75956999999999997</v>
+        <v>0.10793999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5633,10 +5633,736 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-45</v>
+        <v>-9</v>
       </c>
       <c r="C20">
-        <v>0.77886</v>
+        <v>0.11429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-9.5</v>
+      </c>
+      <c r="C21">
+        <v>0.12063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-10</v>
+      </c>
+      <c r="C22">
+        <v>0.12698000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-10.5</v>
+      </c>
+      <c r="C23">
+        <v>0.13333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-11</v>
+      </c>
+      <c r="C24">
+        <v>0.13968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-11.5</v>
+      </c>
+      <c r="C25">
+        <v>0.14602999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-12</v>
+      </c>
+      <c r="C26">
+        <v>0.15237999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-12.5</v>
+      </c>
+      <c r="C27">
+        <v>0.15873000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-13</v>
+      </c>
+      <c r="C28">
+        <v>0.16508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-13.5</v>
+      </c>
+      <c r="C29">
+        <v>0.17143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-14</v>
+      </c>
+      <c r="C30">
+        <v>0.17777999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-14.5</v>
+      </c>
+      <c r="C31">
+        <v>0.18412999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-15</v>
+      </c>
+      <c r="C32">
+        <v>0.19048000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-15.5</v>
+      </c>
+      <c r="C33">
+        <v>0.19681999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-16</v>
+      </c>
+      <c r="C34">
+        <v>0.20316999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-16.5</v>
+      </c>
+      <c r="C35">
+        <v>0.20952000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-17</v>
+      </c>
+      <c r="C36">
+        <v>0.21587000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-17.5</v>
+      </c>
+      <c r="C37">
+        <v>0.22222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-18</v>
+      </c>
+      <c r="C38">
+        <v>0.22857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-18.5</v>
+      </c>
+      <c r="C39">
+        <v>0.23491999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-19</v>
+      </c>
+      <c r="C40">
+        <v>0.24127000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-19.5</v>
+      </c>
+      <c r="C41">
+        <v>0.24762000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-20</v>
+      </c>
+      <c r="C42">
+        <v>0.25396999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-20.5</v>
+      </c>
+      <c r="C43">
+        <v>0.26032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-21</v>
+      </c>
+      <c r="C44">
+        <v>0.26667000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-21.5</v>
+      </c>
+      <c r="C45">
+        <v>0.27300999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-22</v>
+      </c>
+      <c r="C46">
+        <v>0.27936</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-22.5</v>
+      </c>
+      <c r="C47">
+        <v>0.28571000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-23</v>
+      </c>
+      <c r="C48">
+        <v>0.29205999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-23.5</v>
+      </c>
+      <c r="C49">
+        <v>0.29841000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-24</v>
+      </c>
+      <c r="C50">
+        <v>0.30475999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-24.5</v>
+      </c>
+      <c r="C51">
+        <v>0.31111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-25</v>
+      </c>
+      <c r="C52">
+        <v>0.31746000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>-25.5</v>
+      </c>
+      <c r="C53">
+        <v>0.32380999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>-26</v>
+      </c>
+      <c r="C54">
+        <v>0.33016000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-26.5</v>
+      </c>
+      <c r="C55">
+        <v>0.33650999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>-27</v>
+      </c>
+      <c r="C56">
+        <v>0.34286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>-27.5</v>
+      </c>
+      <c r="C57">
+        <v>0.34921000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-28</v>
+      </c>
+      <c r="C58">
+        <v>0.35554999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>-28.5</v>
+      </c>
+      <c r="C59">
+        <v>0.3619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>-29</v>
+      </c>
+      <c r="C60">
+        <v>0.36825000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-29.5</v>
+      </c>
+      <c r="C61">
+        <v>0.37459999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>-30</v>
+      </c>
+      <c r="C62">
+        <v>0.38095000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>-30.5</v>
+      </c>
+      <c r="C63">
+        <v>0.38729999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>-31</v>
+      </c>
+      <c r="C64">
+        <v>0.39365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>-31.5</v>
+      </c>
+      <c r="C65">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>-32</v>
+      </c>
+      <c r="C66">
+        <v>0.40634999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>-32.5</v>
+      </c>
+      <c r="C67">
+        <v>0.41270000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>-33</v>
+      </c>
+      <c r="C68">
+        <v>0.41904999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>-33.5</v>
+      </c>
+      <c r="C69">
+        <v>0.4254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>-34</v>
+      </c>
+      <c r="C70">
+        <v>0.43174000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-34.5</v>
+      </c>
+      <c r="C71">
+        <v>0.43808999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-35</v>
+      </c>
+      <c r="C72">
+        <v>0.44444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>-35.5</v>
+      </c>
+      <c r="C73">
+        <v>0.45079000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>-36</v>
+      </c>
+      <c r="C74">
+        <v>0.45713999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>-36.5</v>
+      </c>
+      <c r="C75">
+        <v>0.46237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>-37</v>
+      </c>
+      <c r="C76">
+        <v>0.46694999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>-37.5</v>
+      </c>
+      <c r="C77">
+        <v>0.47153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>-38</v>
+      </c>
+      <c r="C78">
+        <v>0.47610000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>-38.5</v>
+      </c>
+      <c r="C79">
+        <v>0.48068</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>-39</v>
+      </c>
+      <c r="C80">
+        <v>0.48526000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>-39.5</v>
+      </c>
+      <c r="C81">
+        <v>0.48982999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>-40</v>
+      </c>
+      <c r="C82">
+        <v>0.49352000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>-40.5</v>
+      </c>
+      <c r="C83">
+        <v>0.49608999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>-41</v>
+      </c>
+      <c r="C84">
+        <v>0.49865999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>-41.5</v>
+      </c>
+      <c r="C85">
+        <v>0.50122999999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>-42</v>
+      </c>
+      <c r="C86">
+        <v>0.50380999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97602B4-67CC-4819-BD73-0901F2AC4FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B56AC8-1A55-4D27-84DF-45651640A57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF59AC3-EDBC-4E60-87D2-EEFBB85DEEF1}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.08</v>
+        <v>-4</v>
       </c>
       <c r="C3">
-        <v>1.2345999999999999E-2</v>
+        <v>0.42825000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -495,10 +495,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.16</v>
+        <v>-8</v>
       </c>
       <c r="C4">
-        <v>2.4691000000000001E-2</v>
+        <v>0.51846999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.24</v>
+        <v>-12</v>
       </c>
       <c r="C5">
-        <v>3.7037E-2</v>
+        <v>0.56952000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,10 +517,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.32</v>
+        <v>-16</v>
       </c>
       <c r="C6">
-        <v>4.9383000000000003E-2</v>
+        <v>0.61604000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,10 +528,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.4</v>
+        <v>-20</v>
       </c>
       <c r="C7">
-        <v>6.1727999999999998E-2</v>
+        <v>0.65669</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.48</v>
+        <v>-24</v>
       </c>
       <c r="C8">
-        <v>7.4074000000000001E-2</v>
+        <v>0.67839000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,10 +550,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.56100000000000005</v>
+        <v>-28</v>
       </c>
       <c r="C9">
-        <v>8.6419999999999997E-2</v>
+        <v>0.69096999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -561,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.64100000000000001</v>
+        <v>-32</v>
       </c>
       <c r="C10">
-        <v>9.8765000000000006E-2</v>
+        <v>0.70040999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -572,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.72099999999999997</v>
+        <v>-36</v>
       </c>
       <c r="C11">
-        <v>0.11111</v>
+        <v>0.70745000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -583,10 +583,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.80100000000000005</v>
+        <v>-40</v>
       </c>
       <c r="C12">
-        <v>0.12346</v>
+        <v>0.71220000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -594,10 +594,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.88200000000000001</v>
+        <v>-44</v>
       </c>
       <c r="C13">
-        <v>0.1358</v>
+        <v>0.71626000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -605,10 +605,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.97099999999999997</v>
+        <v>-48</v>
       </c>
       <c r="C14">
-        <v>0.14815</v>
+        <v>0.71984999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -616,10 +616,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.0649999999999999</v>
+        <v>-52</v>
       </c>
       <c r="C15">
-        <v>0.16048999999999999</v>
+        <v>0.72292999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -627,10 +627,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.161</v>
+        <v>-56</v>
       </c>
       <c r="C16">
-        <v>0.17283999999999999</v>
+        <v>0.72555000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -638,10 +638,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-1.2549999999999999</v>
+        <v>-60</v>
       </c>
       <c r="C17">
-        <v>0.18518999999999999</v>
+        <v>0.72797000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -649,10 +649,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.353</v>
+        <v>-64</v>
       </c>
       <c r="C18">
-        <v>0.19753000000000001</v>
+        <v>0.73007</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -660,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.4530000000000001</v>
+        <v>-68</v>
       </c>
       <c r="C19">
-        <v>0.20988000000000001</v>
+        <v>0.73197999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -671,10 +671,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.556</v>
+        <v>-72</v>
       </c>
       <c r="C20">
-        <v>0.22222</v>
+        <v>0.73372000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -682,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.66</v>
+        <v>-76</v>
       </c>
       <c r="C21">
-        <v>0.23457</v>
+        <v>0.73536999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -693,10 +693,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.766</v>
+        <v>-80</v>
       </c>
       <c r="C22">
-        <v>0.24690999999999999</v>
+        <v>0.73677000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -704,10 +704,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.8740000000000001</v>
+        <v>-84</v>
       </c>
       <c r="C23">
-        <v>0.25925999999999999</v>
+        <v>0.73807</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -715,10 +715,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.994</v>
+        <v>-88</v>
       </c>
       <c r="C24">
-        <v>0.27160000000000001</v>
+        <v>0.73929999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -726,10 +726,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-2.1179999999999999</v>
+        <v>-92</v>
       </c>
       <c r="C25">
-        <v>0.28394999999999998</v>
+        <v>0.74046999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -737,10 +737,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-2.2519999999999998</v>
+        <v>-96</v>
       </c>
       <c r="C26">
-        <v>0.29630000000000001</v>
+        <v>0.74158999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -748,10 +748,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-2.3980000000000001</v>
+        <v>-100</v>
       </c>
       <c r="C27">
-        <v>0.30864000000000003</v>
+        <v>0.74263999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,10 +759,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.5529999999999999</v>
+        <v>-104</v>
       </c>
       <c r="C28">
-        <v>0.32099</v>
+        <v>0.74365000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -770,10 +770,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-2.7189999999999999</v>
+        <v>-108</v>
       </c>
       <c r="C29">
-        <v>0.33333000000000002</v>
+        <v>0.74463999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -781,10 +781,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-2.895</v>
+        <v>-112</v>
       </c>
       <c r="C30">
-        <v>0.34567999999999999</v>
+        <v>0.74558999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -792,10 +792,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-3.0750000000000002</v>
+        <v>-116</v>
       </c>
       <c r="C31">
-        <v>0.35802</v>
+        <v>0.74651000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -803,10 +803,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-3.2610000000000001</v>
+        <v>-120</v>
       </c>
       <c r="C32">
-        <v>0.37036999999999998</v>
+        <v>0.74741999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,10 +814,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-3.4529999999999998</v>
+        <v>-124</v>
       </c>
       <c r="C33">
-        <v>0.38272</v>
+        <v>0.74829999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -825,10 +825,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-3.6539999999999999</v>
+        <v>-128</v>
       </c>
       <c r="C34">
-        <v>0.39506000000000002</v>
+        <v>0.74914000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -836,10 +836,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-3.8679999999999999</v>
+        <v>-132</v>
       </c>
       <c r="C35">
-        <v>0.40740999999999999</v>
+        <v>0.74995999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -847,10 +847,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-4.0990000000000002</v>
+        <v>-136</v>
       </c>
       <c r="C36">
-        <v>0.41975000000000001</v>
+        <v>0.75077000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -858,395 +858,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-4.3520000000000003</v>
+        <v>-140</v>
       </c>
       <c r="C37">
-        <v>0.43209999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>-4.6210000000000004</v>
-      </c>
-      <c r="C38">
-        <v>0.44444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>-4.907</v>
-      </c>
-      <c r="C39">
-        <v>0.45678999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>-5.226</v>
-      </c>
-      <c r="C40">
-        <v>0.46914</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>-5.5910000000000002</v>
-      </c>
-      <c r="C41">
-        <v>0.48148000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>-6.0270000000000001</v>
-      </c>
-      <c r="C42">
-        <v>0.49382999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>-6.5359999999999996</v>
-      </c>
-      <c r="C43">
-        <v>0.50617000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>-7.1109999999999998</v>
-      </c>
-      <c r="C44">
-        <v>0.51851999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>-7.7439999999999998</v>
-      </c>
-      <c r="C45">
-        <v>0.53086</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>-8.4420000000000002</v>
-      </c>
-      <c r="C46">
-        <v>0.54320999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>-9.1959999999999997</v>
-      </c>
-      <c r="C47">
-        <v>0.55556000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>-10.006</v>
-      </c>
-      <c r="C48">
-        <v>0.56789999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>-10.891999999999999</v>
-      </c>
-      <c r="C49">
-        <v>0.58025000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>-11.815</v>
-      </c>
-      <c r="C50">
-        <v>0.59258999999999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>-12.763</v>
-      </c>
-      <c r="C51">
-        <v>0.60494000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>-13.715999999999999</v>
-      </c>
-      <c r="C52">
-        <v>0.61728000000000005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>-14.723000000000001</v>
-      </c>
-      <c r="C53">
-        <v>0.62963000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>-15.754</v>
-      </c>
-      <c r="C54">
-        <v>0.64198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>-16.805</v>
-      </c>
-      <c r="C55">
-        <v>0.65432000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>-17.905000000000001</v>
-      </c>
-      <c r="C56">
-        <v>0.66666999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>-19.050999999999998</v>
-      </c>
-      <c r="C57">
-        <v>0.67901</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>-20.303999999999998</v>
-      </c>
-      <c r="C58">
-        <v>0.69135999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>-22.01</v>
-      </c>
-      <c r="C59">
-        <v>0.70369999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>-24.341000000000001</v>
-      </c>
-      <c r="C60">
-        <v>0.71604999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>-27.312000000000001</v>
-      </c>
-      <c r="C61">
-        <v>0.72840000000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>-31.154</v>
-      </c>
-      <c r="C62">
-        <v>0.74073999999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>-35.808999999999997</v>
-      </c>
-      <c r="C63">
-        <v>0.75309000000000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>-41.786000000000001</v>
-      </c>
-      <c r="C64">
-        <v>0.76543000000000005</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>-49.179000000000002</v>
-      </c>
-      <c r="C65">
-        <v>0.77778000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>-58.231000000000002</v>
-      </c>
-      <c r="C66">
-        <v>0.79012000000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>-68.373000000000005</v>
-      </c>
-      <c r="C67">
-        <v>0.80247000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>-80.019000000000005</v>
-      </c>
-      <c r="C68">
-        <v>0.81481000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>-92.602000000000004</v>
-      </c>
-      <c r="C69">
-        <v>0.82716000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>-105.56699999999999</v>
-      </c>
-      <c r="C70">
-        <v>0.83950999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>-119.241</v>
-      </c>
-      <c r="C71">
-        <v>0.85185</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>-133.244</v>
-      </c>
-      <c r="C72">
-        <v>0.86419999999999997</v>
+        <v>0.75156000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +3634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D900DCE-0A2E-463F-93CB-27F02159151E}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
@@ -5157,7 +4772,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C22"/>
+      <selection activeCell="N6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B56AC8-1A55-4D27-84DF-45651640A57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CC00D1-A8F5-413F-A897-78CC43FF72EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="V10_drillweich" sheetId="5" r:id="rId8"/>
     <sheet name="V10_axis" sheetId="6" r:id="rId9"/>
     <sheet name="quad_last_verform" sheetId="11" r:id="rId10"/>
+    <sheet name="trm" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -451,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF59AC3-EDBC-4E60-87D2-EEFBB85DEEF1}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1016,6 +1017,1968 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F2A991-1A60-4177-9068-D02ED058E460}">
+  <dimension ref="A1:C177"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.4423000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-0.114</v>
+      </c>
+      <c r="C4">
+        <v>6.8846000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-0.17100000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.10327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.22900000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.13769000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.17212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.20654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-0.4</v>
+      </c>
+      <c r="C9">
+        <v>0.24096000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-0.45700000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.27539000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-0.51400000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.30980999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-0.57099999999999995</v>
+      </c>
+      <c r="C12">
+        <v>0.34422999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-0.629</v>
+      </c>
+      <c r="C13">
+        <v>0.37864999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.68600000000000005</v>
+      </c>
+      <c r="C14">
+        <v>0.41308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.74299999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.44750000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.8</v>
+      </c>
+      <c r="C16">
+        <v>0.47758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-0.85699999999999998</v>
+      </c>
+      <c r="C17">
+        <v>0.48729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-0.91400000000000003</v>
+      </c>
+      <c r="C18">
+        <v>0.49701000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.97099999999999997</v>
+      </c>
+      <c r="C19">
+        <v>0.50671999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-1.0289999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.51644000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.52615999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-1.143</v>
+      </c>
+      <c r="C22">
+        <v>0.53586999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-1.2</v>
+      </c>
+      <c r="C23">
+        <v>0.54559000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-1.2569999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.55530000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-1.3140000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.56501999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-1.371</v>
+      </c>
+      <c r="C26">
+        <v>0.57472999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-1.429</v>
+      </c>
+      <c r="C27">
+        <v>0.58445000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-1.486</v>
+      </c>
+      <c r="C28">
+        <v>0.59416999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-1.5429999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.60387999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-1.6</v>
+      </c>
+      <c r="C30">
+        <v>0.61360000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-1.657</v>
+      </c>
+      <c r="C31">
+        <v>0.62331000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-1.714</v>
+      </c>
+      <c r="C32">
+        <v>0.63302999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-1.7709999999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.64273999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-1.829</v>
+      </c>
+      <c r="C34">
+        <v>0.65246000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-1.8859999999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.66217000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-1.9430000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.67188999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-2</v>
+      </c>
+      <c r="C37">
+        <v>0.68161000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-2.0569999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.69132000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-2.1139999999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.70104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-2.1709999999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.71074999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-2.2290000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.72047000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-2.286</v>
+      </c>
+      <c r="C42">
+        <v>0.73018000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-2.343</v>
+      </c>
+      <c r="C43">
+        <v>0.7399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-2.4</v>
+      </c>
+      <c r="C44">
+        <v>0.74658000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-2.4569999999999999</v>
+      </c>
+      <c r="C45">
+        <v>0.75282000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-2.5139999999999998</v>
+      </c>
+      <c r="C46">
+        <v>0.75905999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-2.5710000000000002</v>
+      </c>
+      <c r="C47">
+        <v>0.76531000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-2.629</v>
+      </c>
+      <c r="C48">
+        <v>0.77154999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-2.6859999999999999</v>
+      </c>
+      <c r="C49">
+        <v>0.77061999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-2.7429999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.77149999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-2.8</v>
+      </c>
+      <c r="C51">
+        <v>0.77759999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-2.8570000000000002</v>
+      </c>
+      <c r="C52">
+        <v>0.77949999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>-2.9140000000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.78013999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>-2.9710000000000001</v>
+      </c>
+      <c r="C54">
+        <v>0.78078000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-3.0289999999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.78142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>-3.0859999999999999</v>
+      </c>
+      <c r="C56">
+        <v>0.78205999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>-3.1429999999999998</v>
+      </c>
+      <c r="C57">
+        <v>0.78269999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-3.2</v>
+      </c>
+      <c r="C58">
+        <v>0.78334000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>-3.2570000000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.78398000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>-3.3140000000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.78461999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-3.371</v>
+      </c>
+      <c r="C61">
+        <v>0.78525999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>-3.4289999999999998</v>
+      </c>
+      <c r="C62">
+        <v>0.78590000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>-3.4860000000000002</v>
+      </c>
+      <c r="C63">
+        <v>0.78654000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>-3.5430000000000001</v>
+      </c>
+      <c r="C64">
+        <v>0.78717000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>-3.6</v>
+      </c>
+      <c r="C65">
+        <v>0.78781000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>-3.657</v>
+      </c>
+      <c r="C66">
+        <v>0.78844999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>-3.714</v>
+      </c>
+      <c r="C67">
+        <v>0.78908999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>-3.7709999999999999</v>
+      </c>
+      <c r="C68">
+        <v>0.78973000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>-3.8290000000000002</v>
+      </c>
+      <c r="C69">
+        <v>0.79037000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>-3.8860000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.79100999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-3.9430000000000001</v>
+      </c>
+      <c r="C71">
+        <v>0.79164999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-4</v>
+      </c>
+      <c r="C72">
+        <v>0.79229000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>-4.0570000000000004</v>
+      </c>
+      <c r="C73">
+        <v>0.79293000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>-4.1139999999999999</v>
+      </c>
+      <c r="C74">
+        <v>0.79357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>-4.1710000000000003</v>
+      </c>
+      <c r="C75">
+        <v>0.79420999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>-4.2290000000000001</v>
+      </c>
+      <c r="C76">
+        <v>0.79484999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>-4.2859999999999996</v>
+      </c>
+      <c r="C77">
+        <v>0.79549000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>-4.343</v>
+      </c>
+      <c r="C78">
+        <v>0.79613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="C79">
+        <v>0.79676999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>-4.4569999999999999</v>
+      </c>
+      <c r="C80">
+        <v>0.79740999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>-4.5140000000000002</v>
+      </c>
+      <c r="C81">
+        <v>0.79805000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>-4.5709999999999997</v>
+      </c>
+      <c r="C82">
+        <v>0.79869000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>-4.6289999999999996</v>
+      </c>
+      <c r="C83">
+        <v>0.79932999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>-4.6859999999999999</v>
+      </c>
+      <c r="C84">
+        <v>0.79996999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>-4.7430000000000003</v>
+      </c>
+      <c r="C85">
+        <v>0.80061000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>-4.8</v>
+      </c>
+      <c r="C86">
+        <v>0.80125000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>-4.8570000000000002</v>
+      </c>
+      <c r="C87">
+        <v>0.80188999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>-4.9139999999999997</v>
+      </c>
+      <c r="C88">
+        <v>0.80252999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>-4.9710000000000001</v>
+      </c>
+      <c r="C89">
+        <v>0.80317000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>-5.0289999999999999</v>
+      </c>
+      <c r="C90">
+        <v>0.80379999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>-5.0860000000000003</v>
+      </c>
+      <c r="C91">
+        <v>0.80444000000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>-5.1429999999999998</v>
+      </c>
+      <c r="C92">
+        <v>0.80508000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>-5.2</v>
+      </c>
+      <c r="C93">
+        <v>0.80571999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>-5.2569999999999997</v>
+      </c>
+      <c r="C94">
+        <v>0.80635999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>-5.3140000000000001</v>
+      </c>
+      <c r="C95">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>-5.3710000000000004</v>
+      </c>
+      <c r="C96">
+        <v>0.80764000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>-5.4290000000000003</v>
+      </c>
+      <c r="C97">
+        <v>0.80828</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>-5.4859999999999998</v>
+      </c>
+      <c r="C98">
+        <v>0.80891999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>-5.5430000000000001</v>
+      </c>
+      <c r="C99">
+        <v>0.80955999999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>-5.6</v>
+      </c>
+      <c r="C100">
+        <v>0.81020000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>-5.657</v>
+      </c>
+      <c r="C101">
+        <v>0.81084000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>-5.7140000000000004</v>
+      </c>
+      <c r="C102">
+        <v>0.81147999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>-5.7709999999999999</v>
+      </c>
+      <c r="C103">
+        <v>0.81211999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>-5.8289999999999997</v>
+      </c>
+      <c r="C104">
+        <v>0.81276000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>-5.8860000000000001</v>
+      </c>
+      <c r="C105">
+        <v>0.81340000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>-5.9429999999999996</v>
+      </c>
+      <c r="C106">
+        <v>0.81403999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>-6</v>
+      </c>
+      <c r="C107">
+        <v>0.81467999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>-6.0570000000000004</v>
+      </c>
+      <c r="C108">
+        <v>0.81532000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>-6.1139999999999999</v>
+      </c>
+      <c r="C109">
+        <v>0.81596000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>-6.1710000000000003</v>
+      </c>
+      <c r="C110">
+        <v>0.81659999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>-6.2290000000000001</v>
+      </c>
+      <c r="C111">
+        <v>0.81723999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>-6.2859999999999996</v>
+      </c>
+      <c r="C112">
+        <v>0.81788000000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>-6.343</v>
+      </c>
+      <c r="C113">
+        <v>0.81852000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>-6.4</v>
+      </c>
+      <c r="C114">
+        <v>0.81916</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>-6.4569999999999999</v>
+      </c>
+      <c r="C115">
+        <v>0.81979999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>-6.5140000000000002</v>
+      </c>
+      <c r="C116">
+        <v>0.82042999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>-6.5709999999999997</v>
+      </c>
+      <c r="C117">
+        <v>0.82106999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>-6.6289999999999996</v>
+      </c>
+      <c r="C118">
+        <v>0.82171000000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>-6.6859999999999999</v>
+      </c>
+      <c r="C119">
+        <v>0.82235000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>-6.7430000000000003</v>
+      </c>
+      <c r="C120">
+        <v>0.82299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>-6.8</v>
+      </c>
+      <c r="C121">
+        <v>0.82362999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>-6.8570000000000002</v>
+      </c>
+      <c r="C122">
+        <v>0.82426999999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>-6.9139999999999997</v>
+      </c>
+      <c r="C123">
+        <v>0.82491000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>-6.9710000000000001</v>
+      </c>
+      <c r="C124">
+        <v>0.82555000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>-7.0289999999999999</v>
+      </c>
+      <c r="C125">
+        <v>0.82618999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>-7.0860000000000003</v>
+      </c>
+      <c r="C126">
+        <v>0.82682999999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>-7.1429999999999998</v>
+      </c>
+      <c r="C127">
+        <v>0.82747000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>-7.2</v>
+      </c>
+      <c r="C128">
+        <v>0.82811000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>-7.2569999999999997</v>
+      </c>
+      <c r="C129">
+        <v>0.82874999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>-7.3140000000000001</v>
+      </c>
+      <c r="C130">
+        <v>0.82938999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>-7.3710000000000004</v>
+      </c>
+      <c r="C131">
+        <v>0.83003000000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>-7.4290000000000003</v>
+      </c>
+      <c r="C132">
+        <v>0.83067000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>-7.4859999999999998</v>
+      </c>
+      <c r="C133">
+        <v>0.83130999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>-7.5430000000000001</v>
+      </c>
+      <c r="C134">
+        <v>0.83194999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>-7.6</v>
+      </c>
+      <c r="C135">
+        <v>0.83259000000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>-7.657</v>
+      </c>
+      <c r="C136">
+        <v>0.83323000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>-7.7140000000000004</v>
+      </c>
+      <c r="C137">
+        <v>0.82789999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>-7.7709999999999999</v>
+      </c>
+      <c r="C138">
+        <v>0.83331999999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>-7.8289999999999997</v>
+      </c>
+      <c r="C139">
+        <v>0.83182999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>-7.8860000000000001</v>
+      </c>
+      <c r="C140">
+        <v>0.83267999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>-7.9429999999999996</v>
+      </c>
+      <c r="C141">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>-8</v>
+      </c>
+      <c r="C142">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>-8.0570000000000004</v>
+      </c>
+      <c r="C143">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>-8.1140000000000008</v>
+      </c>
+      <c r="C144">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>-8.1709999999999994</v>
+      </c>
+      <c r="C145">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>-8.2289999999999992</v>
+      </c>
+      <c r="C146">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>-8.2859999999999996</v>
+      </c>
+      <c r="C147">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>-8.343</v>
+      </c>
+      <c r="C148">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>-8.4</v>
+      </c>
+      <c r="C149">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>-8.4570000000000007</v>
+      </c>
+      <c r="C150">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>-8.5139999999999993</v>
+      </c>
+      <c r="C151">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>-8.5709999999999997</v>
+      </c>
+      <c r="C152">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>-8.6289999999999996</v>
+      </c>
+      <c r="C153">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>-8.6859999999999999</v>
+      </c>
+      <c r="C154">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>-8.7430000000000003</v>
+      </c>
+      <c r="C155">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="C156">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>-8.8569999999999993</v>
+      </c>
+      <c r="C157">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>-8.9139999999999997</v>
+      </c>
+      <c r="C158">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>-8.9710000000000001</v>
+      </c>
+      <c r="C159">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>-9.0289999999999999</v>
+      </c>
+      <c r="C160">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>-9.0860000000000003</v>
+      </c>
+      <c r="C161">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>-9.1430000000000007</v>
+      </c>
+      <c r="C162">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="C163">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>-9.2569999999999997</v>
+      </c>
+      <c r="C164">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>-9.3140000000000001</v>
+      </c>
+      <c r="C165">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>-9.3710000000000004</v>
+      </c>
+      <c r="C166">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>-9.4290000000000003</v>
+      </c>
+      <c r="C167">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>-9.4860000000000007</v>
+      </c>
+      <c r="C168">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>-9.5429999999999993</v>
+      </c>
+      <c r="C169">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>-9.6</v>
+      </c>
+      <c r="C170">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>-9.657</v>
+      </c>
+      <c r="C171">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>-9.7140000000000004</v>
+      </c>
+      <c r="C172">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>-9.7710000000000008</v>
+      </c>
+      <c r="C173">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>-9.8290000000000006</v>
+      </c>
+      <c r="C174">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>-9.8859999999999992</v>
+      </c>
+      <c r="C175">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>-9.9429999999999996</v>
+      </c>
+      <c r="C176">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>-10</v>
+      </c>
+      <c r="C177">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945D95B-BC6D-4B37-A0BE-EBF1667CF75F}">
   <dimension ref="A1:C11"/>

--- a/calc/axis_res.xlsx
+++ b/calc/axis_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal Gitz\Projekte\masterthesis\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CC00D1-A8F5-413F-A897-78CC43FF72EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB67B7BA-8606-4D0B-ABAA-DA3ED6F849D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{021E54E6-8E37-4073-83E3-817D91990564}"/>
   </bookViews>
   <sheets>
     <sheet name="V10" sheetId="1" r:id="rId1"/>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF59AC3-EDBC-4E60-87D2-EEFBB85DEEF1}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
         <v>-4</v>
       </c>
       <c r="C3">
-        <v>0.42825000000000002</v>
+        <v>0.41786000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
         <v>-8</v>
       </c>
       <c r="C4">
-        <v>0.51846999999999999</v>
+        <v>0.50488999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -510,7 +510,7 @@
         <v>-12</v>
       </c>
       <c r="C5">
-        <v>0.56952000000000003</v>
+        <v>0.55103999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -521,7 +521,7 @@
         <v>-16</v>
       </c>
       <c r="C6">
-        <v>0.61604000000000003</v>
+        <v>0.59670999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>-20</v>
       </c>
       <c r="C7">
-        <v>0.65669</v>
+        <v>0.64083999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,7 +543,7 @@
         <v>-24</v>
       </c>
       <c r="C8">
-        <v>0.67839000000000005</v>
+        <v>0.67684999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>-28</v>
       </c>
       <c r="C9">
-        <v>0.69096999999999997</v>
+        <v>0.69738999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -565,7 +565,7 @@
         <v>-32</v>
       </c>
       <c r="C10">
-        <v>0.70040999999999998</v>
+        <v>0.71274999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -576,7 +576,7 @@
         <v>-36</v>
       </c>
       <c r="C11">
-        <v>0.70745000000000002</v>
+        <v>0.72626999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
         <v>-40</v>
       </c>
       <c r="C12">
-        <v>0.71220000000000006</v>
+        <v>0.73712</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
         <v>-44</v>
       </c>
       <c r="C13">
-        <v>0.71626000000000001</v>
+        <v>0.74658999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -609,7 +609,7 @@
         <v>-48</v>
       </c>
       <c r="C14">
-        <v>0.71984999999999999</v>
+        <v>0.75509000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -620,7 +620,7 @@
         <v>-52</v>
       </c>
       <c r="C15">
-        <v>0.72292999999999996</v>
+        <v>0.76312999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -631,7 +631,7 @@
         <v>-56</v>
       </c>
       <c r="C16">
-        <v>0.72555000000000003</v>
+        <v>0.77068999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>-60</v>
       </c>
       <c r="C17">
-        <v>0.72797000000000001</v>
+        <v>0.77781999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>-64</v>
       </c>
       <c r="C18">
-        <v>0.73007</v>
+        <v>0.78464999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>-68</v>
       </c>
       <c r="C19">
-        <v>0.73197999999999996</v>
+        <v>0.79127999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
         <v>-72</v>
       </c>
       <c r="C20">
-        <v>0.73372000000000004</v>
+        <v>0.79735</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -686,7 +686,7 @@
         <v>-76</v>
       </c>
       <c r="C21">
-        <v>0.73536999999999997</v>
+        <v>0.80345</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>-80</v>
       </c>
       <c r="C22">
-        <v>0.73677000000000004</v>
+        <v>0.80920999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>-84</v>
       </c>
       <c r="C23">
-        <v>0.73807</v>
+        <v>0.81403999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>-88</v>
       </c>
       <c r="C24">
-        <v>0.73929999999999996</v>
+        <v>0.81847999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
         <v>-92</v>
       </c>
       <c r="C25">
-        <v>0.74046999999999996</v>
+        <v>0.82267000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -741,7 +741,7 @@
         <v>-96</v>
       </c>
       <c r="C26">
-        <v>0.74158999999999997</v>
+        <v>0.82672999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
         <v>-100</v>
       </c>
       <c r="C27">
-        <v>0.74263999999999997</v>
+        <v>0.83062999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>-104</v>
       </c>
       <c r="C28">
-        <v>0.74365000000000003</v>
+        <v>0.83433000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -774,7 +774,7 @@
         <v>-108</v>
       </c>
       <c r="C29">
-        <v>0.74463999999999997</v>
+        <v>0.83789000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -785,7 +785,7 @@
         <v>-112</v>
       </c>
       <c r="C30">
-        <v>0.74558999999999997</v>
+        <v>0.84126999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>-116</v>
       </c>
       <c r="C31">
-        <v>0.74651000000000001</v>
+        <v>0.84443000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -807,7 +807,7 @@
         <v>-120</v>
       </c>
       <c r="C32">
-        <v>0.74741999999999997</v>
+        <v>0.84738999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>-124</v>
       </c>
       <c r="C33">
-        <v>0.74829999999999997</v>
+        <v>0.85021000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
         <v>-128</v>
       </c>
       <c r="C34">
-        <v>0.74914000000000003</v>
+        <v>0.85294999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -840,7 +840,7 @@
         <v>-132</v>
       </c>
       <c r="C35">
-        <v>0.74995999999999996</v>
+        <v>0.85562000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>-136</v>
       </c>
       <c r="C36">
-        <v>0.75077000000000005</v>
+        <v>0.85824999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -862,7 +862,172 @@
         <v>-140</v>
       </c>
       <c r="C37">
-        <v>0.75156000000000001</v>
+        <v>0.86082999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-144</v>
+      </c>
+      <c r="C38">
+        <v>0.86328000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-148</v>
+      </c>
+      <c r="C39">
+        <v>0.86534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-152</v>
+      </c>
+      <c r="C40">
+        <v>0.86719000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-156</v>
+      </c>
+      <c r="C41">
+        <v>0.86892000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-160</v>
+      </c>
+      <c r="C42">
+        <v>0.87055000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-164</v>
+      </c>
+      <c r="C43">
+        <v>0.87204000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-168</v>
+      </c>
+      <c r="C44">
+        <v>0.87344999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-172</v>
+      </c>
+      <c r="C45">
+        <v>0.87480999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-176</v>
+      </c>
+      <c r="C46">
+        <v>0.87612999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-180</v>
+      </c>
+      <c r="C47">
+        <v>0.87741000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-184</v>
+      </c>
+      <c r="C48">
+        <v>0.87863999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-188</v>
+      </c>
+      <c r="C49">
+        <v>0.87978000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-192</v>
+      </c>
+      <c r="C50">
+        <v>0.88085000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-196</v>
+      </c>
+      <c r="C51">
+        <v>0.88183999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-200</v>
+      </c>
+      <c r="C52">
+        <v>0.88275000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F2A991-1A60-4177-9068-D02ED058E460}">
   <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
